--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_1_33.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_1_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3199401.584923119</v>
+        <v>3197705.585487729</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1862215.849446233</v>
+        <v>1862215.849446234</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>320.5441765308657</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,16 +665,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>129.0747690566048</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00833977841103</v>
+        <v>171.8848368452716</v>
       </c>
       <c r="H2" t="n">
-        <v>320.5441765308657</v>
+        <v>320.5441765308655</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>131.3761561116594</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>202.3114811606467</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.807123471622</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>320.5441765308655</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>320.5441765308657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,7 +738,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -747,16 +747,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>55.29257453092499</v>
+        <v>20.76159807086221</v>
       </c>
       <c r="G3" t="n">
-        <v>137.1860004873776</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>110.7141647620036</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>83.97336133698785</v>
+        <v>83.97336133698786</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,19 +786,19 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>168.7573679365003</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>199.5298259531963</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9310191417753</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>78.38382708374522</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>5.220221754581348</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>79.18022576860295</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>239.5272343758692</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,10 +950,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1102,19 +1102,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>190.2713935802968</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>168.7756050755991</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>29.1773530835704</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>19.76755821211439</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1333,22 +1333,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>99.37427387042507</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>147.120607416982</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>134.5354483336725</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>83.43218874149819</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>85.10712400514191</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.2535930516859</v>
       </c>
       <c r="T13" t="n">
         <v>189.582538445509</v>
@@ -1591,10 +1591,10 @@
         <v>253.8116255716357</v>
       </c>
       <c r="X13" t="n">
-        <v>192.9982826240819</v>
+        <v>118.8525294722676</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>185.8732805871395</v>
       </c>
     </row>
     <row r="14">
@@ -1616,7 +1616,7 @@
         <v>349.2189973073065</v>
       </c>
       <c r="F14" t="n">
-        <v>374.1646729767569</v>
+        <v>374.1646729767562</v>
       </c>
       <c r="G14" t="n">
         <v>379.6425579819826</v>
@@ -1625,7 +1625,7 @@
         <v>276.5639620360127</v>
       </c>
       <c r="I14" t="n">
-        <v>64.08064387452956</v>
+        <v>64.08064387452957</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,7 +1661,7 @@
         <v>177.476075171393</v>
       </c>
       <c r="U14" t="n">
-        <v>218.3983756014254</v>
+        <v>218.3983756014255</v>
       </c>
       <c r="V14" t="n">
         <v>295.0408857051796</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>147.120607416982</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>134.5354483336725</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>133.9568733935888</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>117.7554991105157</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>82.96090738668732</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>85.10712400514191</v>
+        <v>85.10712400514193</v>
       </c>
       <c r="S16" t="n">
         <v>168.2535930516859</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>189.582538445509</v>
       </c>
       <c r="U16" t="n">
-        <v>225.8808532906606</v>
+        <v>179.3897543560897</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>219.4262705588727</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>253.8116255716357</v>
       </c>
       <c r="X16" t="n">
         <v>192.9982826240819</v>
@@ -1862,7 +1862,7 @@
         <v>276.5639620360127</v>
       </c>
       <c r="I17" t="n">
-        <v>64.08064387452956</v>
+        <v>64.08064387452957</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1898,7 +1898,7 @@
         <v>177.476075171393</v>
       </c>
       <c r="U17" t="n">
-        <v>218.3983756014254</v>
+        <v>218.3983756014255</v>
       </c>
       <c r="V17" t="n">
         <v>295.0408857051796</v>
@@ -1910,7 +1910,7 @@
         <v>337.0197279135137</v>
       </c>
       <c r="Y17" t="n">
-        <v>353.5265658910987</v>
+        <v>353.5265658910983</v>
       </c>
     </row>
     <row r="18">
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>134.5354483336725</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>79.07915232995131</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>117.7554991105157</v>
+        <v>10.74506907338532</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>85.10712400514193</v>
       </c>
       <c r="S19" t="n">
         <v>168.2535930516859</v>
@@ -2059,7 +2059,7 @@
         <v>253.5355075079039</v>
       </c>
       <c r="V19" t="n">
-        <v>219.4262705588727</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>253.8116255716357</v>
@@ -2068,7 +2068,7 @@
         <v>192.9982826240819</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>185.8732805871395</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>276.5639620360127</v>
       </c>
       <c r="I20" t="n">
-        <v>64.08064387452954</v>
+        <v>64.08064387452956</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1127625909972</v>
+        <v>109.1127625909973</v>
       </c>
       <c r="T20" t="n">
         <v>177.476075171393</v>
       </c>
       <c r="U20" t="n">
-        <v>218.3983756014255</v>
+        <v>218.398375601426</v>
       </c>
       <c r="V20" t="n">
         <v>295.0408857051796</v>
@@ -2178,7 +2178,7 @@
         <v>96.99769390382595</v>
       </c>
       <c r="I21" t="n">
-        <v>35.07495251015097</v>
+        <v>35.07495251015098</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>2.198890597110022</v>
+        <v>2.198890597110037</v>
       </c>
       <c r="S21" t="n">
         <v>142.3771435566718</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>85.10712400514193</v>
       </c>
       <c r="S22" t="n">
         <v>168.2535930516859</v>
@@ -2293,7 +2293,7 @@
         <v>189.582538445509</v>
       </c>
       <c r="U22" t="n">
-        <v>253.5355075079039</v>
+        <v>45.43288096250109</v>
       </c>
       <c r="V22" t="n">
         <v>219.4262705588727</v>
@@ -2305,7 +2305,7 @@
         <v>192.9982826240819</v>
       </c>
       <c r="Y22" t="n">
-        <v>62.87777804687867</v>
+        <v>185.8732805871395</v>
       </c>
     </row>
     <row r="23">
@@ -2375,7 +2375,7 @@
         <v>218.3983756014254</v>
       </c>
       <c r="V23" t="n">
-        <v>295.0408857051796</v>
+        <v>295.0408857051784</v>
       </c>
       <c r="W23" t="n">
         <v>316.5295959524577</v>
@@ -2384,7 +2384,7 @@
         <v>337.0197279135137</v>
       </c>
       <c r="Y23" t="n">
-        <v>353.5265658910987</v>
+        <v>353.5265658910983</v>
       </c>
     </row>
     <row r="24">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>147.120607416982</v>
+        <v>118.8525294722673</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2485,16 +2485,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>112.709675257976</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>133.9568733935888</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>117.7554991105157</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>82.96090738668731</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>24.12018943430722</v>
+        <v>85.10712400514193</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.2535930516859</v>
       </c>
       <c r="T25" t="n">
         <v>189.582538445509</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>253.5355075079039</v>
       </c>
       <c r="V25" t="n">
         <v>219.4262705588727</v>
@@ -2539,10 +2539,10 @@
         <v>253.8116255716357</v>
       </c>
       <c r="X25" t="n">
-        <v>192.9982826240819</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>185.8732805871395</v>
       </c>
     </row>
     <row r="26">
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>147.120607416982</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2722,13 +2722,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>112.709675257976</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>111.7275274353248</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>168.2535930516859</v>
       </c>
       <c r="T28" t="n">
-        <v>189.582538445509</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>253.5355075079039</v>
@@ -2773,13 +2773,13 @@
         <v>219.4262705588727</v>
       </c>
       <c r="W28" t="n">
-        <v>253.8116255716357</v>
+        <v>109.418128190373</v>
       </c>
       <c r="X28" t="n">
         <v>192.9982826240819</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>185.8732805871395</v>
       </c>
     </row>
     <row r="29">
@@ -2798,19 +2798,19 @@
         <v>321.9716688557277</v>
       </c>
       <c r="E29" t="n">
-        <v>349.2189973073065</v>
+        <v>349.2189973073066</v>
       </c>
       <c r="F29" t="n">
-        <v>374.1646729767569</v>
+        <v>374.1646729767562</v>
       </c>
       <c r="G29" t="n">
         <v>379.6425579819826</v>
       </c>
       <c r="H29" t="n">
-        <v>276.5639620360127</v>
+        <v>276.5639620360128</v>
       </c>
       <c r="I29" t="n">
-        <v>64.08064387452956</v>
+        <v>64.08064387452963</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1127625909972</v>
+        <v>109.1127625909973</v>
       </c>
       <c r="T29" t="n">
-        <v>177.476075171393</v>
+        <v>177.4760751713931</v>
       </c>
       <c r="U29" t="n">
-        <v>218.3983756014254</v>
+        <v>218.3983756014255</v>
       </c>
       <c r="V29" t="n">
-        <v>295.0408857051796</v>
+        <v>295.0408857051797</v>
       </c>
       <c r="W29" t="n">
-        <v>316.5295959524577</v>
+        <v>316.5295959524578</v>
       </c>
       <c r="X29" t="n">
-        <v>337.0197279135137</v>
+        <v>337.0197279135138</v>
       </c>
       <c r="Y29" t="n">
-        <v>353.5265658910983</v>
+        <v>353.5265658910984</v>
       </c>
     </row>
     <row r="30">
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>147.120607416982</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>49.7140440234854</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>115.9041002532571</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>82.96090738668737</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>85.10712400514198</v>
       </c>
       <c r="S31" t="n">
         <v>168.2535930516859</v>
@@ -3004,13 +3004,13 @@
         <v>189.582538445509</v>
       </c>
       <c r="U31" t="n">
-        <v>253.5355075079039</v>
+        <v>253.535507507904</v>
       </c>
       <c r="V31" t="n">
-        <v>219.4262705588727</v>
+        <v>219.4262705588728</v>
       </c>
       <c r="W31" t="n">
-        <v>253.8116255716357</v>
+        <v>166.6741453670156</v>
       </c>
       <c r="X31" t="n">
         <v>192.9982826240819</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>317.3110961335701</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>299.850146241097</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>289.2602960907725</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>316.5076245423512</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>341.4533002118009</v>
       </c>
       <c r="G32" t="n">
-        <v>412.3539307469379</v>
+        <v>346.9311852170273</v>
       </c>
       <c r="H32" t="n">
-        <v>309.275334800968</v>
+        <v>243.8525892710574</v>
       </c>
       <c r="I32" t="n">
-        <v>96.79201663948484</v>
+        <v>31.36927110957427</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>76.40138982604203</v>
+        <v>141.8241353559525</v>
       </c>
       <c r="T32" t="n">
-        <v>144.7647024064378</v>
+        <v>177.4760751713921</v>
       </c>
       <c r="U32" t="n">
-        <v>185.6870028364702</v>
+        <v>251.1097483663807</v>
       </c>
       <c r="V32" t="n">
-        <v>262.3295129402244</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>316.5295959524574</v>
+        <v>283.8182231875024</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>320.815193126143</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>114.4092346520268</v>
+        <v>114.4092346520267</v>
       </c>
       <c r="C34" t="n">
-        <v>12.06894717867602</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>83.19272748830177</v>
       </c>
       <c r="E34" t="n">
-        <v>81.01121711665868</v>
+        <v>81.01121711665859</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>79.99830249302066</v>
       </c>
       <c r="G34" t="n">
-        <v>101.2455006286336</v>
+        <v>85.417078793282</v>
       </c>
       <c r="H34" t="n">
-        <v>85.04412634556047</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>50.2495346217321</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>52.39575124018671</v>
+        <v>52.39575124018662</v>
       </c>
       <c r="S34" t="n">
-        <v>135.5422202867307</v>
+        <v>135.5422202867306</v>
       </c>
       <c r="T34" t="n">
-        <v>156.8711656805538</v>
+        <v>156.8711656805537</v>
       </c>
       <c r="U34" t="n">
-        <v>220.8241347429487</v>
+        <v>220.8241347429486</v>
       </c>
       <c r="V34" t="n">
-        <v>186.7148977939175</v>
+        <v>186.7148977939174</v>
       </c>
       <c r="W34" t="n">
-        <v>221.1002528066805</v>
+        <v>221.1002528066804</v>
       </c>
       <c r="X34" t="n">
-        <v>160.2869098591267</v>
+        <v>160.2869098591266</v>
       </c>
       <c r="Y34" t="n">
-        <v>153.1619078221843</v>
+        <v>153.1619078221842</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>317.31109613357</v>
       </c>
       <c r="C35" t="n">
         <v>299.850146241097</v>
       </c>
       <c r="D35" t="n">
-        <v>289.2602960907725</v>
+        <v>289.2602960907724</v>
       </c>
       <c r="E35" t="n">
-        <v>316.5076245423513</v>
+        <v>349.2189973073069</v>
       </c>
       <c r="F35" t="n">
-        <v>341.453300211801</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>346.9311852170274</v>
+        <v>346.9311852170273</v>
       </c>
       <c r="H35" t="n">
-        <v>243.8525892710575</v>
+        <v>243.8525892710574</v>
       </c>
       <c r="I35" t="n">
-        <v>64.0806438745294</v>
+        <v>31.36927110957427</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>141.8241353559525</v>
+        <v>76.40138982604192</v>
       </c>
       <c r="T35" t="n">
         <v>210.1874479363483</v>
@@ -3329,7 +3329,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>304.3083551485586</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>114.4092346520268</v>
+        <v>26.50550511924672</v>
       </c>
       <c r="C37" t="n">
-        <v>101.8240755687173</v>
+        <v>101.8240755687172</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>83.19272748830177</v>
       </c>
       <c r="E37" t="n">
-        <v>81.01121711665868</v>
+        <v>81.01121711665859</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>101.2455006286336</v>
+        <v>101.2455006286335</v>
       </c>
       <c r="H37" t="n">
-        <v>85.04412634556047</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>50.2495346217321</v>
+        <v>50.249534621732</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>52.39575124018671</v>
+        <v>52.39575124018661</v>
       </c>
       <c r="S37" t="n">
-        <v>135.5422202867307</v>
+        <v>135.5422202867306</v>
       </c>
       <c r="T37" t="n">
-        <v>156.8711656805538</v>
+        <v>156.8711656805537</v>
       </c>
       <c r="U37" t="n">
-        <v>220.8241347429487</v>
+        <v>220.8241347429486</v>
       </c>
       <c r="V37" t="n">
-        <v>186.7148977939175</v>
+        <v>186.7148977939174</v>
       </c>
       <c r="W37" t="n">
-        <v>221.1002528066805</v>
+        <v>221.1002528066804</v>
       </c>
       <c r="X37" t="n">
-        <v>70.53178146908537</v>
+        <v>160.2869098591266</v>
       </c>
       <c r="Y37" t="n">
-        <v>153.1619078221843</v>
+        <v>153.1619078221842</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>317.31109613357</v>
       </c>
       <c r="C38" t="n">
-        <v>299.850146241097</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>289.2602960907725</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>316.5076245423512</v>
       </c>
       <c r="F38" t="n">
-        <v>374.1646729767552</v>
+        <v>341.4533002118009</v>
       </c>
       <c r="G38" t="n">
-        <v>346.9311852170274</v>
+        <v>346.9311852170273</v>
       </c>
       <c r="H38" t="n">
-        <v>243.8525892710575</v>
+        <v>309.275334800968</v>
       </c>
       <c r="I38" t="n">
-        <v>31.36927110957436</v>
+        <v>31.36927110957427</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,19 +3551,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>76.40138982604203</v>
+        <v>141.8241353559525</v>
       </c>
       <c r="T38" t="n">
-        <v>144.7647024064378</v>
+        <v>144.7647024064377</v>
       </c>
       <c r="U38" t="n">
         <v>251.1097483663807</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>262.3295129402243</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>316.5295959524565</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>114.4092346520267</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>101.8240755687172</v>
       </c>
       <c r="D40" t="n">
-        <v>46.47987933768279</v>
+        <v>83.19272748830177</v>
       </c>
       <c r="E40" t="n">
-        <v>81.01121711665868</v>
+        <v>81.01121711665859</v>
       </c>
       <c r="F40" t="n">
-        <v>79.99830249302076</v>
+        <v>79.99830249302066</v>
       </c>
       <c r="G40" t="n">
-        <v>101.2455006286336</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>85.04412634556047</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>50.2495346217321</v>
+        <v>50.249534621732</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>52.39575124018671</v>
+        <v>52.39575124018661</v>
       </c>
       <c r="S40" t="n">
-        <v>135.5422202867307</v>
+        <v>135.5422202867306</v>
       </c>
       <c r="T40" t="n">
-        <v>156.8711656805538</v>
+        <v>156.8711656805537</v>
       </c>
       <c r="U40" t="n">
-        <v>220.8241347429487</v>
+        <v>220.8241347429486</v>
       </c>
       <c r="V40" t="n">
-        <v>186.7148977939175</v>
+        <v>186.7148977939174</v>
       </c>
       <c r="W40" t="n">
-        <v>221.1002528066805</v>
+        <v>154.443721409513</v>
       </c>
       <c r="X40" t="n">
-        <v>160.2869098591267</v>
+        <v>160.2869098591266</v>
       </c>
       <c r="Y40" t="n">
-        <v>153.1619078221843</v>
+        <v>153.1619078221842</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>350.0224688985253</v>
+        <v>350.0224688985259</v>
       </c>
       <c r="C41" t="n">
         <v>332.5615190060523</v>
@@ -3746,19 +3746,19 @@
         <v>321.9716688557277</v>
       </c>
       <c r="E41" t="n">
-        <v>349.2189973073066</v>
+        <v>349.2189973073065</v>
       </c>
       <c r="F41" t="n">
         <v>374.1646729767562</v>
       </c>
       <c r="G41" t="n">
-        <v>379.6425579819827</v>
+        <v>379.6425579819826</v>
       </c>
       <c r="H41" t="n">
-        <v>276.5639620360128</v>
+        <v>276.5639620360127</v>
       </c>
       <c r="I41" t="n">
-        <v>64.08064387452961</v>
+        <v>64.08064387452956</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1127625909973</v>
+        <v>109.1127625909972</v>
       </c>
       <c r="T41" t="n">
-        <v>177.4760751713931</v>
+        <v>177.476075171393</v>
       </c>
       <c r="U41" t="n">
-        <v>218.3983756014255</v>
+        <v>218.3983756014254</v>
       </c>
       <c r="V41" t="n">
-        <v>295.0408857051797</v>
+        <v>295.0408857051796</v>
       </c>
       <c r="W41" t="n">
-        <v>316.5295959524578</v>
+        <v>316.5295959524577</v>
       </c>
       <c r="X41" t="n">
-        <v>337.0197279135138</v>
+        <v>337.0197279135137</v>
       </c>
       <c r="Y41" t="n">
-        <v>353.5265658910973</v>
+        <v>353.5265658910983</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>112.5549708247247</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>115.9041002532571</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>112.709675257976</v>
+        <v>10.96137085332762</v>
       </c>
       <c r="G43" t="n">
-        <v>133.9568733935889</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>82.96090738668738</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.2535930516859</v>
       </c>
       <c r="T43" t="n">
         <v>189.582538445509</v>
       </c>
       <c r="U43" t="n">
-        <v>253.535507507904</v>
+        <v>253.5355075079039</v>
       </c>
       <c r="V43" t="n">
-        <v>219.4262705588728</v>
+        <v>219.4262705588727</v>
       </c>
       <c r="W43" t="n">
-        <v>253.8116255716358</v>
+        <v>253.8116255716357</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>192.9982826240819</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>185.8732805871395</v>
       </c>
     </row>
     <row r="44">
@@ -3983,7 +3983,7 @@
         <v>321.9716688557277</v>
       </c>
       <c r="E44" t="n">
-        <v>349.2189973073066</v>
+        <v>349.2189973073065</v>
       </c>
       <c r="F44" t="n">
         <v>374.1646729767562</v>
@@ -3992,10 +3992,10 @@
         <v>379.6425579819826</v>
       </c>
       <c r="H44" t="n">
-        <v>276.5639620360128</v>
+        <v>276.5639620360127</v>
       </c>
       <c r="I44" t="n">
-        <v>64.08064387452963</v>
+        <v>64.08064387452956</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,22 +4028,22 @@
         <v>109.1127625909973</v>
       </c>
       <c r="T44" t="n">
-        <v>177.4760751713931</v>
+        <v>177.476075171393</v>
       </c>
       <c r="U44" t="n">
         <v>218.3983756014255</v>
       </c>
       <c r="V44" t="n">
-        <v>295.0408857051797</v>
+        <v>295.0408857051796</v>
       </c>
       <c r="W44" t="n">
-        <v>316.5295959524578</v>
+        <v>316.5295959524577</v>
       </c>
       <c r="X44" t="n">
-        <v>337.0197279135138</v>
+        <v>337.0197279135137</v>
       </c>
       <c r="Y44" t="n">
-        <v>353.5265658910984</v>
+        <v>353.5265658910983</v>
       </c>
     </row>
     <row r="45">
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>147.120607416982</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>132.8605130700292</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4150,10 +4150,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>28.7666200486367</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>82.96090738668737</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,22 +4180,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>85.10712400514198</v>
+        <v>85.10712400514191</v>
       </c>
       <c r="S46" t="n">
-        <v>168.2535930516859</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>189.582538445509</v>
       </c>
       <c r="U46" t="n">
-        <v>253.535507507904</v>
+        <v>253.5355075079039</v>
       </c>
       <c r="V46" t="n">
-        <v>219.4262705588728</v>
+        <v>219.4262705588727</v>
       </c>
       <c r="W46" t="n">
-        <v>253.8116255716358</v>
+        <v>253.8116255716357</v>
       </c>
       <c r="X46" t="n">
         <v>192.9982826240819</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>501.90952514024</v>
+        <v>529.9920786859526</v>
       </c>
       <c r="C2" t="n">
-        <v>501.90952514024</v>
+        <v>529.9920786859526</v>
       </c>
       <c r="D2" t="n">
-        <v>501.90952514024</v>
+        <v>529.9920786859526</v>
       </c>
       <c r="E2" t="n">
-        <v>371.5309705376088</v>
+        <v>529.9920786859526</v>
       </c>
       <c r="F2" t="n">
-        <v>364.5854697884054</v>
+        <v>523.0465779367491</v>
       </c>
       <c r="G2" t="n">
-        <v>349.4255306182932</v>
+        <v>349.425530618293</v>
       </c>
       <c r="H2" t="n">
-        <v>25.64353412246926</v>
+        <v>25.64353412246924</v>
       </c>
       <c r="I2" t="n">
-        <v>25.64353412246926</v>
+        <v>25.64353412246924</v>
       </c>
       <c r="J2" t="n">
-        <v>38.55051116961044</v>
+        <v>38.55051116961022</v>
       </c>
       <c r="K2" t="n">
-        <v>178.6395282223129</v>
+        <v>178.6395282223125</v>
       </c>
       <c r="L2" t="n">
-        <v>404.7089689366666</v>
+        <v>404.7089689366661</v>
       </c>
       <c r="M2" t="n">
-        <v>672.861326122227</v>
+        <v>672.8613261222263</v>
       </c>
       <c r="N2" t="n">
-        <v>930.7206712458948</v>
+        <v>930.7206712458941</v>
       </c>
       <c r="O2" t="n">
-        <v>1129.022300985368</v>
+        <v>1129.022300985367</v>
       </c>
       <c r="P2" t="n">
-        <v>1260.593771190123</v>
+        <v>1260.593771190122</v>
       </c>
       <c r="Q2" t="n">
-        <v>1282.176706123463</v>
+        <v>1282.176706123462</v>
       </c>
       <c r="R2" t="n">
-        <v>1149.473518131888</v>
+        <v>1282.176706123462</v>
       </c>
       <c r="S2" t="n">
-        <v>1149.473518131888</v>
+        <v>1077.821674648061</v>
       </c>
       <c r="T2" t="n">
-        <v>1149.473518131888</v>
+        <v>853.7740751817763</v>
       </c>
       <c r="U2" t="n">
-        <v>1149.473518131888</v>
+        <v>853.7740751817763</v>
       </c>
       <c r="V2" t="n">
-        <v>1149.473518131888</v>
+        <v>529.9920786859526</v>
       </c>
       <c r="W2" t="n">
-        <v>1149.473518131888</v>
+        <v>529.9920786859526</v>
       </c>
       <c r="X2" t="n">
-        <v>1149.473518131888</v>
+        <v>529.9920786859526</v>
       </c>
       <c r="Y2" t="n">
-        <v>825.691521636064</v>
+        <v>529.9920786859526</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>416.7204039379179</v>
+        <v>305.8894516943539</v>
       </c>
       <c r="C3" t="n">
-        <v>416.7204039379179</v>
+        <v>131.4364224132269</v>
       </c>
       <c r="D3" t="n">
-        <v>416.7204039379179</v>
+        <v>131.4364224132269</v>
       </c>
       <c r="E3" t="n">
-        <v>416.7204039379179</v>
+        <v>131.4364224132269</v>
       </c>
       <c r="F3" t="n">
-        <v>360.8693185531451</v>
+        <v>110.4651112305378</v>
       </c>
       <c r="G3" t="n">
-        <v>222.2976008891274</v>
+        <v>110.4651112305378</v>
       </c>
       <c r="H3" t="n">
         <v>110.4651112305378</v>
       </c>
       <c r="I3" t="n">
-        <v>25.64353412246926</v>
+        <v>25.64353412246924</v>
       </c>
       <c r="J3" t="n">
-        <v>25.64353412246926</v>
+        <v>39.63746154709864</v>
       </c>
       <c r="K3" t="n">
-        <v>176.1822281259373</v>
+        <v>190.1761555505666</v>
       </c>
       <c r="L3" t="n">
-        <v>440.0044761291275</v>
+        <v>453.9984035537567</v>
       </c>
       <c r="M3" t="n">
-        <v>678.9821053319433</v>
+        <v>466.5606390251931</v>
       </c>
       <c r="N3" t="n">
-        <v>996.3208400975004</v>
+        <v>783.8993737907499</v>
       </c>
       <c r="O3" t="n">
-        <v>1282.176706123463</v>
+        <v>1069.755239816712</v>
       </c>
       <c r="P3" t="n">
-        <v>1282.176706123463</v>
+        <v>1282.176706123462</v>
       </c>
       <c r="Q3" t="n">
-        <v>1282.176706123463</v>
+        <v>1282.176706123462</v>
       </c>
       <c r="R3" t="n">
-        <v>1282.176706123463</v>
+        <v>1282.176706123462</v>
       </c>
       <c r="S3" t="n">
-        <v>1282.176706123463</v>
+        <v>1111.714718308815</v>
       </c>
       <c r="T3" t="n">
-        <v>1282.176706123463</v>
+        <v>910.1694395682126</v>
       </c>
       <c r="U3" t="n">
-        <v>1282.176706123463</v>
+        <v>681.9562889199548</v>
       </c>
       <c r="V3" t="n">
-        <v>1047.02459789172</v>
+        <v>681.9562889199548</v>
       </c>
       <c r="W3" t="n">
-        <v>792.7872411635187</v>
+        <v>681.9562889199548</v>
       </c>
       <c r="X3" t="n">
-        <v>584.9357409579859</v>
+        <v>474.1047887144219</v>
       </c>
       <c r="Y3" t="n">
-        <v>584.9357409579859</v>
+        <v>474.1047887144219</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>251.7090645332536</v>
+        <v>25.64353412246924</v>
       </c>
       <c r="C4" t="n">
-        <v>251.7090645332536</v>
+        <v>25.64353412246924</v>
       </c>
       <c r="D4" t="n">
-        <v>251.7090645332536</v>
+        <v>25.64353412246924</v>
       </c>
       <c r="E4" t="n">
-        <v>251.7090645332536</v>
+        <v>25.64353412246924</v>
       </c>
       <c r="F4" t="n">
-        <v>104.8191170353432</v>
+        <v>25.64353412246924</v>
       </c>
       <c r="G4" t="n">
-        <v>104.8191170353432</v>
+        <v>25.64353412246924</v>
       </c>
       <c r="H4" t="n">
-        <v>104.8191170353432</v>
+        <v>25.64353412246924</v>
       </c>
       <c r="I4" t="n">
-        <v>25.64353412246926</v>
+        <v>25.64353412246924</v>
       </c>
       <c r="J4" t="n">
-        <v>25.64353412246926</v>
+        <v>25.64353412246924</v>
       </c>
       <c r="K4" t="n">
-        <v>25.64353412246926</v>
+        <v>25.64353412246924</v>
       </c>
       <c r="L4" t="n">
-        <v>72.39455505894529</v>
+        <v>72.39455505894519</v>
       </c>
       <c r="M4" t="n">
-        <v>132.076074754143</v>
+        <v>132.0760747541428</v>
       </c>
       <c r="N4" t="n">
-        <v>195.7731177275974</v>
+        <v>195.7731177275971</v>
       </c>
       <c r="O4" t="n">
-        <v>238.5913510642459</v>
+        <v>238.5913510642457</v>
       </c>
       <c r="P4" t="n">
-        <v>251.7090645332536</v>
+        <v>251.7090645332532</v>
       </c>
       <c r="Q4" t="n">
-        <v>251.7090645332536</v>
+        <v>251.7090645332532</v>
       </c>
       <c r="R4" t="n">
-        <v>251.7090645332536</v>
+        <v>251.7090645332532</v>
       </c>
       <c r="S4" t="n">
-        <v>251.7090645332536</v>
+        <v>251.7090645332532</v>
       </c>
       <c r="T4" t="n">
-        <v>251.7090645332536</v>
+        <v>251.7090645332532</v>
       </c>
       <c r="U4" t="n">
-        <v>251.7090645332536</v>
+        <v>246.4361132659994</v>
       </c>
       <c r="V4" t="n">
-        <v>251.7090645332536</v>
+        <v>246.4361132659994</v>
       </c>
       <c r="W4" t="n">
-        <v>251.7090645332536</v>
+        <v>246.4361132659994</v>
       </c>
       <c r="X4" t="n">
-        <v>251.7090645332536</v>
+        <v>246.4361132659994</v>
       </c>
       <c r="Y4" t="n">
-        <v>251.7090645332536</v>
+        <v>25.64353412246924</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1563.476704221264</v>
+        <v>1560.797780174034</v>
       </c>
       <c r="C5" t="n">
-        <v>1194.514187280852</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="D5" t="n">
-        <v>1194.514187280852</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E5" t="n">
-        <v>1194.514187280852</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,10 +4568,10 @@
         <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4598,19 +4598,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>1916.245359491378</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W5" t="n">
-        <v>1563.476704221264</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X5" t="n">
-        <v>1563.476704221264</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="Y5" t="n">
-        <v>1563.476704221264</v>
+        <v>1640.777806202926</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4650,7 +4650,7 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4750,16 +4750,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>535.9356573576496</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T7" t="n">
-        <v>308.6274700262513</v>
+        <v>343.360151857325</v>
       </c>
       <c r="U7" t="n">
-        <v>308.6274700262513</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W7" t="n">
         <v>53.94298182036445</v>
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>808.0839286340174</v>
+        <v>953.9071733620844</v>
       </c>
       <c r="C8" t="n">
-        <v>439.1214116936057</v>
+        <v>584.9446564216728</v>
       </c>
       <c r="D8" t="n">
-        <v>80.85571308685519</v>
+        <v>584.9446564216728</v>
       </c>
       <c r="E8" t="n">
-        <v>80.85571308685519</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F8" t="n">
-        <v>73.91021233765171</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,16 +4805,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.288858935031</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="X8" t="n">
-        <v>1584.823100673951</v>
+        <v>1344.046505337896</v>
       </c>
       <c r="Y8" t="n">
-        <v>1194.683768698139</v>
+        <v>953.9071733620844</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4920,10 +4920,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>323.2572191628421</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>323.2572191628421</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2207.118688098185</v>
       </c>
       <c r="C11" t="n">
-        <v>1871.197961829446</v>
+        <v>1871.197961829445</v>
       </c>
       <c r="D11" t="n">
         <v>1545.974053894367</v>
@@ -5027,52 +5027,52 @@
         <v>1193.227591967795</v>
       </c>
       <c r="F11" t="n">
-        <v>815.2834778498593</v>
+        <v>815.2834778498591</v>
       </c>
       <c r="G11" t="n">
-        <v>431.8061465549274</v>
+        <v>431.8061465549272</v>
       </c>
       <c r="H11" t="n">
-        <v>152.4486091448135</v>
+        <v>152.4486091448136</v>
       </c>
       <c r="I11" t="n">
-        <v>87.72068603922816</v>
+        <v>87.72068603922817</v>
       </c>
       <c r="J11" t="n">
-        <v>323.6644151360129</v>
+        <v>323.6644151360133</v>
       </c>
       <c r="K11" t="n">
-        <v>798.0277071975943</v>
+        <v>798.0277071975947</v>
       </c>
       <c r="L11" t="n">
-        <v>1438.793944613803</v>
+        <v>1438.793944613804</v>
       </c>
       <c r="M11" t="n">
-        <v>2168.376391648545</v>
+        <v>2168.376391648546</v>
       </c>
       <c r="N11" t="n">
-        <v>2895.132247885461</v>
+        <v>2895.132247885462</v>
       </c>
       <c r="O11" t="n">
         <v>3536.199556729538</v>
       </c>
       <c r="P11" t="n">
-        <v>4045.661290304048</v>
+        <v>4045.661290304049</v>
       </c>
       <c r="Q11" t="n">
-        <v>4351.024075401909</v>
+        <v>4351.02407540191</v>
       </c>
       <c r="R11" t="n">
-        <v>4386.034301961407</v>
+        <v>4386.034301961408</v>
       </c>
       <c r="S11" t="n">
-        <v>4275.819390253329</v>
+        <v>4275.81939025333</v>
       </c>
       <c r="T11" t="n">
-        <v>4096.550627453942</v>
+        <v>4096.550627453944</v>
       </c>
       <c r="U11" t="n">
-        <v>3875.946207654524</v>
+        <v>3875.946207654523</v>
       </c>
       <c r="V11" t="n">
         <v>3577.925110982625</v>
@@ -5115,22 +5115,22 @@
         <v>123.1499309989766</v>
       </c>
       <c r="I12" t="n">
-        <v>87.72068603922816</v>
+        <v>87.72068603922817</v>
       </c>
       <c r="J12" t="n">
         <v>234.5537750299091</v>
       </c>
       <c r="K12" t="n">
-        <v>350.3151698176601</v>
+        <v>350.3151698176602</v>
       </c>
       <c r="L12" t="n">
-        <v>706.7919690421727</v>
+        <v>919.4251339587911</v>
       </c>
       <c r="M12" t="n">
-        <v>1422.895675652343</v>
+        <v>1635.528840568961</v>
       </c>
       <c r="N12" t="n">
-        <v>2173.65952993086</v>
+        <v>1911.74374424736</v>
       </c>
       <c r="O12" t="n">
         <v>2404.122408636315</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>307.8900164181887</v>
+        <v>87.72068603922817</v>
       </c>
       <c r="C13" t="n">
-        <v>171.9956241619536</v>
+        <v>87.72068603922817</v>
       </c>
       <c r="D13" t="n">
-        <v>171.9956241619536</v>
+        <v>87.72068603922817</v>
       </c>
       <c r="E13" t="n">
-        <v>171.9956241619536</v>
+        <v>87.72068603922817</v>
       </c>
       <c r="F13" t="n">
-        <v>87.72068603922816</v>
+        <v>87.72068603922817</v>
       </c>
       <c r="G13" t="n">
-        <v>87.72068603922816</v>
+        <v>87.72068603922817</v>
       </c>
       <c r="H13" t="n">
-        <v>87.72068603922816</v>
+        <v>87.72068603922817</v>
       </c>
       <c r="I13" t="n">
-        <v>87.72068603922816</v>
+        <v>87.72068603922817</v>
       </c>
       <c r="J13" t="n">
         <v>120.2614216226552</v>
@@ -5221,28 +5221,28 @@
         <v>1577.056513514133</v>
       </c>
       <c r="R13" t="n">
-        <v>1577.056513514133</v>
+        <v>1491.089721589748</v>
       </c>
       <c r="S13" t="n">
-        <v>1577.056513514133</v>
+        <v>1321.136597295116</v>
       </c>
       <c r="T13" t="n">
-        <v>1385.558999932811</v>
+        <v>1129.639083713793</v>
       </c>
       <c r="U13" t="n">
-        <v>1129.462527702605</v>
+        <v>873.5426114835874</v>
       </c>
       <c r="V13" t="n">
-        <v>907.8198301683904</v>
+        <v>651.8999139493725</v>
       </c>
       <c r="W13" t="n">
-        <v>651.4444508031017</v>
+        <v>395.5245345840839</v>
       </c>
       <c r="X13" t="n">
-        <v>456.4966905767564</v>
+        <v>275.4714745110863</v>
       </c>
       <c r="Y13" t="n">
-        <v>456.4966905767564</v>
+        <v>87.72068603922817</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2207.118688098186</v>
+        <v>2207.118688098185</v>
       </c>
       <c r="C14" t="n">
-        <v>1871.197961829446</v>
+        <v>1871.197961829445</v>
       </c>
       <c r="D14" t="n">
-        <v>1545.974053894368</v>
+        <v>1545.974053894367</v>
       </c>
       <c r="E14" t="n">
-        <v>1193.227591967796</v>
+        <v>1193.227591967795</v>
       </c>
       <c r="F14" t="n">
-        <v>815.2834778498593</v>
+        <v>815.2834778498591</v>
       </c>
       <c r="G14" t="n">
-        <v>431.8061465549275</v>
+        <v>431.8061465549272</v>
       </c>
       <c r="H14" t="n">
-        <v>152.4486091448136</v>
+        <v>152.4486091448134</v>
       </c>
       <c r="I14" t="n">
         <v>87.72068603922817</v>
       </c>
       <c r="J14" t="n">
-        <v>323.6644151360128</v>
+        <v>323.6644151360133</v>
       </c>
       <c r="K14" t="n">
-        <v>798.0277071975943</v>
+        <v>798.0277071975947</v>
       </c>
       <c r="L14" t="n">
-        <v>1438.793944613803</v>
+        <v>1438.793944613804</v>
       </c>
       <c r="M14" t="n">
-        <v>2168.376391648545</v>
+        <v>2168.376391648546</v>
       </c>
       <c r="N14" t="n">
-        <v>2895.132247885461</v>
+        <v>2895.132247885462</v>
       </c>
       <c r="O14" t="n">
         <v>3536.199556729538</v>
@@ -5297,31 +5297,31 @@
         <v>4045.661290304049</v>
       </c>
       <c r="Q14" t="n">
-        <v>4351.024075401909</v>
+        <v>4351.02407540191</v>
       </c>
       <c r="R14" t="n">
         <v>4386.034301961408</v>
       </c>
       <c r="S14" t="n">
-        <v>4275.81939025333</v>
+        <v>4275.819390253329</v>
       </c>
       <c r="T14" t="n">
-        <v>4096.550627453944</v>
+        <v>4096.550627453942</v>
       </c>
       <c r="U14" t="n">
-        <v>3875.946207654524</v>
+        <v>3875.946207654523</v>
       </c>
       <c r="V14" t="n">
         <v>3577.925110982625</v>
       </c>
       <c r="W14" t="n">
-        <v>3258.198246384183</v>
+        <v>3258.198246384182</v>
       </c>
       <c r="X14" t="n">
         <v>2917.774278794775</v>
       </c>
       <c r="Y14" t="n">
-        <v>2560.676737490636</v>
+        <v>2560.676737490635</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>87.72068603922817</v>
       </c>
       <c r="J15" t="n">
-        <v>234.5537750299091</v>
+        <v>109.7236500429044</v>
       </c>
       <c r="K15" t="n">
-        <v>612.135754460113</v>
+        <v>225.4850448306555</v>
       </c>
       <c r="L15" t="n">
-        <v>814.1137767508193</v>
+        <v>794.5950089717862</v>
       </c>
       <c r="M15" t="n">
-        <v>1069.16947024849</v>
+        <v>1214.919160793852</v>
       </c>
       <c r="N15" t="n">
-        <v>1468.45769289336</v>
+        <v>1965.683015072369</v>
       </c>
       <c r="O15" t="n">
-        <v>2088.844267682778</v>
+        <v>2196.145893777825</v>
       </c>
       <c r="P15" t="n">
-        <v>2569.756120520457</v>
+        <v>2361.779605661966</v>
       </c>
       <c r="Q15" t="n">
         <v>2630.55867408684</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>561.66889636697</v>
+        <v>87.72068603922817</v>
       </c>
       <c r="C16" t="n">
-        <v>425.7745041107351</v>
+        <v>87.72068603922817</v>
       </c>
       <c r="D16" t="n">
-        <v>425.7745041107351</v>
+        <v>87.72068603922817</v>
       </c>
       <c r="E16" t="n">
-        <v>425.7745041107351</v>
+        <v>87.72068603922817</v>
       </c>
       <c r="F16" t="n">
-        <v>425.7745041107351</v>
+        <v>87.72068603922817</v>
       </c>
       <c r="G16" t="n">
-        <v>290.4645309858978</v>
+        <v>87.72068603922817</v>
       </c>
       <c r="H16" t="n">
-        <v>171.5195823894174</v>
+        <v>87.72068603922817</v>
       </c>
       <c r="I16" t="n">
         <v>87.72068603922817</v>
       </c>
       <c r="J16" t="n">
-        <v>120.2614216226553</v>
+        <v>120.2614216226552</v>
       </c>
       <c r="K16" t="n">
-        <v>282.7396564065223</v>
+        <v>282.739656406522</v>
       </c>
       <c r="L16" t="n">
-        <v>537.1258492141815</v>
+        <v>537.1258492141812</v>
       </c>
       <c r="M16" t="n">
-        <v>813.969143538867</v>
+        <v>813.9691435388669</v>
       </c>
       <c r="N16" t="n">
         <v>1090.434364819082</v>
@@ -5464,22 +5464,22 @@
         <v>1321.136597295116</v>
       </c>
       <c r="T16" t="n">
-        <v>1321.136597295116</v>
+        <v>1129.639083713794</v>
       </c>
       <c r="U16" t="n">
-        <v>1092.974119223741</v>
+        <v>948.4373116369352</v>
       </c>
       <c r="V16" t="n">
-        <v>1092.974119223741</v>
+        <v>726.7946141027203</v>
       </c>
       <c r="W16" t="n">
-        <v>1092.974119223741</v>
+        <v>470.4192347374316</v>
       </c>
       <c r="X16" t="n">
-        <v>898.0263589973957</v>
+        <v>275.4714745110863</v>
       </c>
       <c r="Y16" t="n">
-        <v>710.2755705255377</v>
+        <v>87.72068603922817</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2207.118688098185</v>
       </c>
       <c r="C17" t="n">
-        <v>1871.197961829446</v>
+        <v>1871.197961829445</v>
       </c>
       <c r="D17" t="n">
         <v>1545.974053894367</v>
@@ -5501,10 +5501,10 @@
         <v>1193.227591967795</v>
       </c>
       <c r="F17" t="n">
-        <v>815.2834778498593</v>
+        <v>815.2834778498591</v>
       </c>
       <c r="G17" t="n">
-        <v>431.8061465549275</v>
+        <v>431.8061465549272</v>
       </c>
       <c r="H17" t="n">
         <v>152.4486091448136</v>
@@ -5519,7 +5519,7 @@
         <v>798.0277071975943</v>
       </c>
       <c r="L17" t="n">
-        <v>1438.793944613804</v>
+        <v>1438.793944613803</v>
       </c>
       <c r="M17" t="n">
         <v>2168.376391648545</v>
@@ -5546,13 +5546,13 @@
         <v>4096.550627453944</v>
       </c>
       <c r="U17" t="n">
-        <v>3875.946207654524</v>
+        <v>3875.946207654523</v>
       </c>
       <c r="V17" t="n">
         <v>3577.925110982625</v>
       </c>
       <c r="W17" t="n">
-        <v>3258.198246384183</v>
+        <v>3258.198246384182</v>
       </c>
       <c r="X17" t="n">
         <v>2917.774278794775</v>
@@ -5598,16 +5598,16 @@
         <v>350.3151698176602</v>
       </c>
       <c r="L18" t="n">
-        <v>552.2931921083665</v>
+        <v>852.5618412011348</v>
       </c>
       <c r="M18" t="n">
-        <v>1268.396898718537</v>
+        <v>1107.617534698805</v>
       </c>
       <c r="N18" t="n">
-        <v>2019.160752997053</v>
+        <v>1858.381388977322</v>
       </c>
       <c r="O18" t="n">
-        <v>2249.623631702509</v>
+        <v>2088.844267682778</v>
       </c>
       <c r="P18" t="n">
         <v>2569.756120520457</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>286.5435662821242</v>
+        <v>234.4686834200952</v>
       </c>
       <c r="C19" t="n">
-        <v>286.5435662821242</v>
+        <v>98.57429116385981</v>
       </c>
       <c r="D19" t="n">
-        <v>286.5435662821242</v>
+        <v>98.57429116385981</v>
       </c>
       <c r="E19" t="n">
-        <v>286.5435662821242</v>
+        <v>98.57429116385981</v>
       </c>
       <c r="F19" t="n">
-        <v>286.5435662821242</v>
+        <v>98.57429116385981</v>
       </c>
       <c r="G19" t="n">
-        <v>206.6656346357087</v>
+        <v>98.57429116385981</v>
       </c>
       <c r="H19" t="n">
         <v>87.72068603922817</v>
@@ -5671,7 +5671,7 @@
         <v>87.72068603922817</v>
       </c>
       <c r="J19" t="n">
-        <v>120.2614216226552</v>
+        <v>120.2614216226553</v>
       </c>
       <c r="K19" t="n">
         <v>282.739656406522</v>
@@ -5695,28 +5695,28 @@
         <v>1577.056513514133</v>
       </c>
       <c r="R19" t="n">
-        <v>1577.056513514133</v>
+        <v>1491.089721589748</v>
       </c>
       <c r="S19" t="n">
-        <v>1407.103389219501</v>
+        <v>1321.136597295115</v>
       </c>
       <c r="T19" t="n">
-        <v>1215.605875638179</v>
+        <v>1129.639083713793</v>
       </c>
       <c r="U19" t="n">
-        <v>959.5094034079731</v>
+        <v>873.5426114835873</v>
       </c>
       <c r="V19" t="n">
-        <v>737.8667058737582</v>
+        <v>873.5426114835873</v>
       </c>
       <c r="W19" t="n">
-        <v>481.4913265084696</v>
+        <v>617.1672321182987</v>
       </c>
       <c r="X19" t="n">
-        <v>286.5435662821242</v>
+        <v>422.2194718919533</v>
       </c>
       <c r="Y19" t="n">
-        <v>286.5435662821242</v>
+        <v>234.4686834200952</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2207.118688098185</v>
       </c>
       <c r="C20" t="n">
-        <v>1871.197961829445</v>
+        <v>1871.197961829446</v>
       </c>
       <c r="D20" t="n">
         <v>1545.974053894367</v>
@@ -5738,25 +5738,25 @@
         <v>1193.227591967795</v>
       </c>
       <c r="F20" t="n">
-        <v>815.2834778498592</v>
+        <v>815.2834778498593</v>
       </c>
       <c r="G20" t="n">
-        <v>431.8061465549273</v>
+        <v>431.8061465549275</v>
       </c>
       <c r="H20" t="n">
-        <v>152.4486091448134</v>
+        <v>152.4486091448136</v>
       </c>
       <c r="I20" t="n">
         <v>87.72068603922817</v>
       </c>
       <c r="J20" t="n">
-        <v>323.664415136013</v>
+        <v>323.6644151360128</v>
       </c>
       <c r="K20" t="n">
-        <v>798.0277071975944</v>
+        <v>798.0277071975943</v>
       </c>
       <c r="L20" t="n">
-        <v>1438.793944613803</v>
+        <v>1438.793944613804</v>
       </c>
       <c r="M20" t="n">
         <v>2168.376391648545</v>
@@ -5777,7 +5777,7 @@
         <v>4386.034301961408</v>
       </c>
       <c r="S20" t="n">
-        <v>4275.819390253331</v>
+        <v>4275.81939025333</v>
       </c>
       <c r="T20" t="n">
         <v>4096.550627453944</v>
@@ -5829,25 +5829,25 @@
         <v>87.72068603922817</v>
       </c>
       <c r="J21" t="n">
-        <v>234.5537750299091</v>
+        <v>109.7236500429044</v>
       </c>
       <c r="K21" t="n">
-        <v>612.135754460113</v>
+        <v>225.4850448306555</v>
       </c>
       <c r="L21" t="n">
-        <v>1181.245718601244</v>
+        <v>794.5950089717862</v>
       </c>
       <c r="M21" t="n">
-        <v>1436.301412098914</v>
+        <v>1049.650702469457</v>
       </c>
       <c r="N21" t="n">
-        <v>1712.516315777313</v>
+        <v>1650.404874118831</v>
       </c>
       <c r="O21" t="n">
-        <v>2088.844267682777</v>
+        <v>1880.867752824287</v>
       </c>
       <c r="P21" t="n">
-        <v>2569.756120520457</v>
+        <v>2361.779605661966</v>
       </c>
       <c r="Q21" t="n">
         <v>2630.55867408684</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>223.0306591640652</v>
+        <v>223.0306591640649</v>
       </c>
       <c r="C22" t="n">
-        <v>223.0306591640652</v>
+        <v>223.0306591640649</v>
       </c>
       <c r="D22" t="n">
-        <v>223.0306591640652</v>
+        <v>223.0306591640649</v>
       </c>
       <c r="E22" t="n">
-        <v>223.0306591640652</v>
+        <v>223.0306591640649</v>
       </c>
       <c r="F22" t="n">
-        <v>223.0306591640652</v>
+        <v>223.0306591640649</v>
       </c>
       <c r="G22" t="n">
         <v>87.72068603922817</v>
@@ -5914,7 +5914,7 @@
         <v>282.7396564065222</v>
       </c>
       <c r="L22" t="n">
-        <v>537.1258492141815</v>
+        <v>537.1258492141812</v>
       </c>
       <c r="M22" t="n">
         <v>813.9691435388668</v>
@@ -5929,31 +5929,31 @@
         <v>1520.319417756279</v>
       </c>
       <c r="Q22" t="n">
-        <v>1577.056513514134</v>
+        <v>1577.056513514133</v>
       </c>
       <c r="R22" t="n">
-        <v>1577.056513514134</v>
+        <v>1491.089721589748</v>
       </c>
       <c r="S22" t="n">
-        <v>1407.103389219501</v>
+        <v>1321.136597295116</v>
       </c>
       <c r="T22" t="n">
-        <v>1215.605875638179</v>
+        <v>1129.639083713793</v>
       </c>
       <c r="U22" t="n">
-        <v>959.5094034079733</v>
+        <v>1083.747284761772</v>
       </c>
       <c r="V22" t="n">
-        <v>737.8667058737584</v>
+        <v>862.104587227557</v>
       </c>
       <c r="W22" t="n">
-        <v>481.4913265084698</v>
+        <v>605.7292078622684</v>
       </c>
       <c r="X22" t="n">
-        <v>286.5435662821245</v>
+        <v>410.781447635923</v>
       </c>
       <c r="Y22" t="n">
-        <v>223.0306591640652</v>
+        <v>223.0306591640649</v>
       </c>
     </row>
     <row r="23">
@@ -5984,16 +5984,16 @@
         <v>152.4486091448136</v>
       </c>
       <c r="I23" t="n">
-        <v>87.72068603922817</v>
+        <v>87.72068603922816</v>
       </c>
       <c r="J23" t="n">
-        <v>323.6644151360128</v>
+        <v>323.6644151360129</v>
       </c>
       <c r="K23" t="n">
         <v>798.0277071975943</v>
       </c>
       <c r="L23" t="n">
-        <v>1438.793944613804</v>
+        <v>1438.793944613803</v>
       </c>
       <c r="M23" t="n">
         <v>2168.376391648545</v>
@@ -6002,25 +6002,25 @@
         <v>2895.132247885461</v>
       </c>
       <c r="O23" t="n">
-        <v>3536.199556729538</v>
+        <v>3536.199556729537</v>
       </c>
       <c r="P23" t="n">
-        <v>4045.661290304049</v>
+        <v>4045.661290304048</v>
       </c>
       <c r="Q23" t="n">
-        <v>4351.02407540191</v>
+        <v>4351.024075401909</v>
       </c>
       <c r="R23" t="n">
-        <v>4386.034301961408</v>
+        <v>4386.034301961407</v>
       </c>
       <c r="S23" t="n">
-        <v>4275.81939025333</v>
+        <v>4275.819390253329</v>
       </c>
       <c r="T23" t="n">
-        <v>4096.550627453944</v>
+        <v>4096.550627453942</v>
       </c>
       <c r="U23" t="n">
-        <v>3875.946207654524</v>
+        <v>3875.946207654522</v>
       </c>
       <c r="V23" t="n">
         <v>3577.925110982625</v>
@@ -6063,28 +6063,28 @@
         <v>123.1499309989766</v>
       </c>
       <c r="I24" t="n">
-        <v>87.72068603922817</v>
+        <v>87.72068603922816</v>
       </c>
       <c r="J24" t="n">
-        <v>234.5537750299091</v>
+        <v>109.7236500429043</v>
       </c>
       <c r="K24" t="n">
-        <v>350.3151698176602</v>
+        <v>487.3056294731082</v>
       </c>
       <c r="L24" t="n">
-        <v>919.4251339587911</v>
+        <v>689.2836517638144</v>
       </c>
       <c r="M24" t="n">
-        <v>1174.480827456461</v>
+        <v>1405.387358373985</v>
       </c>
       <c r="N24" t="n">
-        <v>1468.45769289336</v>
+        <v>1681.602262052383</v>
       </c>
       <c r="O24" t="n">
-        <v>2088.844267682778</v>
+        <v>2196.145893777825</v>
       </c>
       <c r="P24" t="n">
-        <v>2569.756120520457</v>
+        <v>2361.779605661966</v>
       </c>
       <c r="Q24" t="n">
         <v>2630.55867408684</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>539.6226609369734</v>
+        <v>87.72068603922816</v>
       </c>
       <c r="C25" t="n">
-        <v>539.6226609369734</v>
+        <v>87.72068603922816</v>
       </c>
       <c r="D25" t="n">
-        <v>539.6226609369734</v>
+        <v>87.72068603922816</v>
       </c>
       <c r="E25" t="n">
-        <v>539.6226609369734</v>
+        <v>87.72068603922816</v>
       </c>
       <c r="F25" t="n">
-        <v>425.7745041107351</v>
+        <v>87.72068603922816</v>
       </c>
       <c r="G25" t="n">
-        <v>290.4645309858978</v>
+        <v>87.72068603922816</v>
       </c>
       <c r="H25" t="n">
-        <v>171.5195823894174</v>
+        <v>87.72068603922816</v>
       </c>
       <c r="I25" t="n">
-        <v>87.72068603922817</v>
+        <v>87.72068603922816</v>
       </c>
       <c r="J25" t="n">
-        <v>120.2614216226553</v>
+        <v>120.2614216226552</v>
       </c>
       <c r="K25" t="n">
-        <v>282.7396564065222</v>
+        <v>282.739656406522</v>
       </c>
       <c r="L25" t="n">
-        <v>537.1258492141811</v>
+        <v>537.1258492141812</v>
       </c>
       <c r="M25" t="n">
         <v>813.9691435388668</v>
@@ -6169,28 +6169,28 @@
         <v>1577.056513514133</v>
       </c>
       <c r="R25" t="n">
-        <v>1552.692685802712</v>
+        <v>1491.089721589748</v>
       </c>
       <c r="S25" t="n">
-        <v>1552.692685802712</v>
+        <v>1321.136597295116</v>
       </c>
       <c r="T25" t="n">
-        <v>1361.19517222139</v>
+        <v>1129.639083713793</v>
       </c>
       <c r="U25" t="n">
-        <v>1361.19517222139</v>
+        <v>873.5426114835871</v>
       </c>
       <c r="V25" t="n">
-        <v>1139.552474687175</v>
+        <v>651.8999139493721</v>
       </c>
       <c r="W25" t="n">
-        <v>883.1770953218863</v>
+        <v>395.5245345840835</v>
       </c>
       <c r="X25" t="n">
-        <v>688.229335095541</v>
+        <v>395.5245345840835</v>
       </c>
       <c r="Y25" t="n">
-        <v>688.229335095541</v>
+        <v>207.7737461122255</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2207.118688098185</v>
+        <v>2207.118688098186</v>
       </c>
       <c r="C26" t="n">
-        <v>1871.197961829445</v>
+        <v>1871.197961829446</v>
       </c>
       <c r="D26" t="n">
         <v>1545.974053894367</v>
@@ -6212,10 +6212,10 @@
         <v>1193.227591967795</v>
       </c>
       <c r="F26" t="n">
-        <v>815.2834778498591</v>
+        <v>815.2834778498597</v>
       </c>
       <c r="G26" t="n">
-        <v>431.8061465549274</v>
+        <v>431.8061465549275</v>
       </c>
       <c r="H26" t="n">
         <v>152.4486091448136</v>
@@ -6224,19 +6224,19 @@
         <v>87.72068603922817</v>
       </c>
       <c r="J26" t="n">
-        <v>323.6644151360133</v>
+        <v>323.6644151360128</v>
       </c>
       <c r="K26" t="n">
-        <v>798.0277071975947</v>
+        <v>798.0277071975943</v>
       </c>
       <c r="L26" t="n">
-        <v>1438.793944613804</v>
+        <v>1438.793944613803</v>
       </c>
       <c r="M26" t="n">
-        <v>2168.376391648546</v>
+        <v>2168.376391648545</v>
       </c>
       <c r="N26" t="n">
-        <v>2895.132247885462</v>
+        <v>2895.132247885461</v>
       </c>
       <c r="O26" t="n">
         <v>3536.199556729538</v>
@@ -6245,13 +6245,13 @@
         <v>4045.661290304049</v>
       </c>
       <c r="Q26" t="n">
-        <v>4351.02407540191</v>
+        <v>4351.024075401909</v>
       </c>
       <c r="R26" t="n">
         <v>4386.034301961408</v>
       </c>
       <c r="S26" t="n">
-        <v>4275.81939025333</v>
+        <v>4275.819390253331</v>
       </c>
       <c r="T26" t="n">
         <v>4096.550627453944</v>
@@ -6269,7 +6269,7 @@
         <v>2917.774278794775</v>
       </c>
       <c r="Y26" t="n">
-        <v>2560.676737490635</v>
+        <v>2560.676737490636</v>
       </c>
     </row>
     <row r="27">
@@ -6306,22 +6306,22 @@
         <v>234.5537750299091</v>
       </c>
       <c r="K27" t="n">
-        <v>612.135754460113</v>
+        <v>350.3151698176602</v>
       </c>
       <c r="L27" t="n">
-        <v>937.1870957172908</v>
+        <v>919.4251339587911</v>
       </c>
       <c r="M27" t="n">
-        <v>1192.242789214961</v>
+        <v>1174.480827456461</v>
       </c>
       <c r="N27" t="n">
-        <v>1468.45769289336</v>
+        <v>1450.69573113486</v>
       </c>
       <c r="O27" t="n">
-        <v>2088.844267682778</v>
+        <v>1880.867752824287</v>
       </c>
       <c r="P27" t="n">
-        <v>2569.756120520457</v>
+        <v>2361.779605661966</v>
       </c>
       <c r="Q27" t="n">
         <v>2630.55867408684</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>200.5767743577387</v>
+        <v>201.5688428654665</v>
       </c>
       <c r="C28" t="n">
-        <v>200.5767743577387</v>
+        <v>201.5688428654665</v>
       </c>
       <c r="D28" t="n">
-        <v>200.5767743577387</v>
+        <v>201.5688428654665</v>
       </c>
       <c r="E28" t="n">
-        <v>200.5767743577387</v>
+        <v>201.5688428654665</v>
       </c>
       <c r="F28" t="n">
-        <v>200.5767743577387</v>
+        <v>87.72068603922817</v>
       </c>
       <c r="G28" t="n">
-        <v>200.5767743577387</v>
+        <v>87.72068603922817</v>
       </c>
       <c r="H28" t="n">
         <v>87.72068603922817</v>
@@ -6382,7 +6382,7 @@
         <v>87.72068603922817</v>
       </c>
       <c r="J28" t="n">
-        <v>120.2614216226552</v>
+        <v>120.2614216226553</v>
       </c>
       <c r="K28" t="n">
         <v>282.7396564065222</v>
@@ -6412,22 +6412,22 @@
         <v>1321.136597295116</v>
       </c>
       <c r="T28" t="n">
-        <v>1129.639083713794</v>
+        <v>1321.136597295116</v>
       </c>
       <c r="U28" t="n">
-        <v>873.5426114835875</v>
+        <v>1065.04012506491</v>
       </c>
       <c r="V28" t="n">
-        <v>651.8999139493726</v>
+        <v>843.3974275306953</v>
       </c>
       <c r="W28" t="n">
-        <v>395.524534584084</v>
+        <v>732.8740657222377</v>
       </c>
       <c r="X28" t="n">
-        <v>200.5767743577387</v>
+        <v>537.9263054958923</v>
       </c>
       <c r="Y28" t="n">
-        <v>200.5767743577387</v>
+        <v>350.1755170240341</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2207.118688098186</v>
+        <v>2207.118688098185</v>
       </c>
       <c r="C29" t="n">
         <v>1871.197961829446</v>
       </c>
       <c r="D29" t="n">
-        <v>1545.974053894368</v>
+        <v>1545.974053894367</v>
       </c>
       <c r="E29" t="n">
-        <v>1193.227591967796</v>
+        <v>1193.227591967795</v>
       </c>
       <c r="F29" t="n">
-        <v>815.2834778498593</v>
+        <v>815.2834778498591</v>
       </c>
       <c r="G29" t="n">
-        <v>431.8061465549275</v>
+        <v>431.8061465549272</v>
       </c>
       <c r="H29" t="n">
-        <v>152.4486091448136</v>
+        <v>152.4486091448137</v>
       </c>
       <c r="I29" t="n">
         <v>87.72068603922817</v>
@@ -6491,7 +6491,7 @@
         <v>4275.81939025333</v>
       </c>
       <c r="T29" t="n">
-        <v>4096.550627453944</v>
+        <v>4096.550627453943</v>
       </c>
       <c r="U29" t="n">
         <v>3875.946207654524</v>
@@ -6506,7 +6506,7 @@
         <v>2917.774278794775</v>
       </c>
       <c r="Y29" t="n">
-        <v>2560.676737490636</v>
+        <v>2560.676737490635</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6540,25 @@
         <v>87.72068603922817</v>
       </c>
       <c r="J30" t="n">
-        <v>234.5537750299091</v>
+        <v>109.7236500429044</v>
       </c>
       <c r="K30" t="n">
-        <v>612.135754460113</v>
+        <v>225.4850448306555</v>
       </c>
       <c r="L30" t="n">
-        <v>1181.245718601244</v>
+        <v>427.4630671213617</v>
       </c>
       <c r="M30" t="n">
-        <v>1582.166485298923</v>
+        <v>682.5187606190322</v>
       </c>
       <c r="N30" t="n">
-        <v>1858.381388977322</v>
+        <v>1433.282614897549</v>
       </c>
       <c r="O30" t="n">
-        <v>2088.844267682778</v>
+        <v>2053.669189686967</v>
       </c>
       <c r="P30" t="n">
-        <v>2569.756120520457</v>
+        <v>2361.779605661966</v>
       </c>
       <c r="Q30" t="n">
         <v>2630.55867408684</v>
@@ -6595,43 +6595,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>137.9368921235568</v>
+        <v>288.5944311300812</v>
       </c>
       <c r="C31" t="n">
-        <v>87.72068603922817</v>
+        <v>288.5944311300812</v>
       </c>
       <c r="D31" t="n">
-        <v>87.72068603922817</v>
+        <v>171.5195823894175</v>
       </c>
       <c r="E31" t="n">
-        <v>87.72068603922817</v>
+        <v>171.5195823894175</v>
       </c>
       <c r="F31" t="n">
-        <v>87.72068603922817</v>
+        <v>171.5195823894175</v>
       </c>
       <c r="G31" t="n">
-        <v>87.72068603922817</v>
+        <v>171.5195823894175</v>
       </c>
       <c r="H31" t="n">
-        <v>87.72068603922817</v>
+        <v>171.5195823894175</v>
       </c>
       <c r="I31" t="n">
         <v>87.72068603922817</v>
       </c>
       <c r="J31" t="n">
-        <v>120.2614216226553</v>
+        <v>120.2614216226552</v>
       </c>
       <c r="K31" t="n">
-        <v>282.7396564065222</v>
+        <v>282.739656406522</v>
       </c>
       <c r="L31" t="n">
-        <v>537.1258492141814</v>
+        <v>537.1258492141811</v>
       </c>
       <c r="M31" t="n">
-        <v>813.969143538867</v>
+        <v>813.9691435388665</v>
       </c>
       <c r="N31" t="n">
-        <v>1090.434364819082</v>
+        <v>1090.434364819081</v>
       </c>
       <c r="O31" t="n">
         <v>1332.250602621746</v>
@@ -6640,31 +6640,31 @@
         <v>1520.319417756279</v>
       </c>
       <c r="Q31" t="n">
-        <v>1577.056513514134</v>
+        <v>1577.056513514133</v>
       </c>
       <c r="R31" t="n">
-        <v>1577.056513514134</v>
+        <v>1491.089721589747</v>
       </c>
       <c r="S31" t="n">
-        <v>1407.103389219501</v>
+        <v>1321.136597295115</v>
       </c>
       <c r="T31" t="n">
-        <v>1215.605875638179</v>
+        <v>1129.639083713793</v>
       </c>
       <c r="U31" t="n">
-        <v>959.5094034079734</v>
+        <v>873.5426114835866</v>
       </c>
       <c r="V31" t="n">
-        <v>737.8667058737585</v>
+        <v>651.8999139493717</v>
       </c>
       <c r="W31" t="n">
-        <v>481.4913265084699</v>
+        <v>483.5421913564266</v>
       </c>
       <c r="X31" t="n">
-        <v>286.5435662821245</v>
+        <v>288.5944311300812</v>
       </c>
       <c r="Y31" t="n">
-        <v>286.5435662821245</v>
+        <v>288.5944311300812</v>
       </c>
     </row>
     <row r="32">
@@ -6674,31 +6674,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2306.244060113202</v>
+        <v>2107.993316083169</v>
       </c>
       <c r="C32" t="n">
-        <v>2003.365124516134</v>
+        <v>1739.030799142757</v>
       </c>
       <c r="D32" t="n">
-        <v>1711.183007252727</v>
+        <v>1380.765100536007</v>
       </c>
       <c r="E32" t="n">
-        <v>1325.394754654483</v>
+        <v>1061.060429281107</v>
       </c>
       <c r="F32" t="n">
-        <v>914.4088498648754</v>
+        <v>716.1581058348434</v>
       </c>
       <c r="G32" t="n">
-        <v>497.8897278982715</v>
+        <v>365.7225652115834</v>
       </c>
       <c r="H32" t="n">
-        <v>185.4903998164856</v>
+        <v>119.4068184731416</v>
       </c>
       <c r="I32" t="n">
-        <v>87.72068603922817</v>
+        <v>87.72068603922816</v>
       </c>
       <c r="J32" t="n">
-        <v>323.6644151360128</v>
+        <v>323.6644151360129</v>
       </c>
       <c r="K32" t="n">
         <v>798.0277071975943</v>
@@ -6719,31 +6719,31 @@
         <v>4045.661290304049</v>
       </c>
       <c r="Q32" t="n">
-        <v>4351.02407540191</v>
+        <v>4351.024075401909</v>
       </c>
       <c r="R32" t="n">
-        <v>4386.034301961408</v>
+        <v>4386.034301961407</v>
       </c>
       <c r="S32" t="n">
-        <v>4308.861180925002</v>
+        <v>4242.777599581657</v>
       </c>
       <c r="T32" t="n">
-        <v>4162.634208797287</v>
+        <v>4063.508836782271</v>
       </c>
       <c r="U32" t="n">
-        <v>3975.071579669539</v>
+        <v>3809.86262631118</v>
       </c>
       <c r="V32" t="n">
-        <v>3710.092273669313</v>
+        <v>3478.799738967609</v>
       </c>
       <c r="W32" t="n">
-        <v>3390.365409070871</v>
+        <v>3192.114665040839</v>
       </c>
       <c r="X32" t="n">
-        <v>3016.899650809791</v>
+        <v>2818.648906779759</v>
       </c>
       <c r="Y32" t="n">
-        <v>2626.760318833979</v>
+        <v>2494.593156147291</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>123.1499309989766</v>
       </c>
       <c r="I33" t="n">
-        <v>87.72068603922817</v>
+        <v>87.72068603922816</v>
       </c>
       <c r="J33" t="n">
-        <v>234.5537750299091</v>
+        <v>109.7236500429043</v>
       </c>
       <c r="K33" t="n">
-        <v>612.135754460113</v>
+        <v>487.3056294731082</v>
       </c>
       <c r="L33" t="n">
-        <v>937.1870957172908</v>
+        <v>689.2836517638144</v>
       </c>
       <c r="M33" t="n">
-        <v>1192.242789214961</v>
+        <v>1299.544415310008</v>
       </c>
       <c r="N33" t="n">
-        <v>1468.45769289336</v>
+        <v>1575.759318988407</v>
       </c>
       <c r="O33" t="n">
-        <v>2088.844267682778</v>
+        <v>2196.145893777825</v>
       </c>
       <c r="P33" t="n">
-        <v>2569.756120520457</v>
+        <v>2361.779605661966</v>
       </c>
       <c r="Q33" t="n">
         <v>2630.55867408684</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>420.6695000708053</v>
+        <v>420.669500070807</v>
       </c>
       <c r="C34" t="n">
-        <v>408.4786443347689</v>
+        <v>420.669500070807</v>
       </c>
       <c r="D34" t="n">
-        <v>408.4786443347689</v>
+        <v>336.6364420018153</v>
       </c>
       <c r="E34" t="n">
-        <v>326.6491320957197</v>
+        <v>254.8069297627662</v>
       </c>
       <c r="F34" t="n">
-        <v>326.6491320957197</v>
+        <v>174.0005636081999</v>
       </c>
       <c r="G34" t="n">
-        <v>224.380949642554</v>
+        <v>87.72068603922816</v>
       </c>
       <c r="H34" t="n">
-        <v>138.4777917177454</v>
+        <v>87.72068603922816</v>
       </c>
       <c r="I34" t="n">
-        <v>87.72068603922817</v>
+        <v>87.72068603922816</v>
       </c>
       <c r="J34" t="n">
-        <v>152.6456806599608</v>
+        <v>152.645680659961</v>
       </c>
       <c r="K34" t="n">
-        <v>347.5081744811334</v>
+        <v>347.5081744811337</v>
       </c>
       <c r="L34" t="n">
-        <v>634.2786263260982</v>
+        <v>634.2786263260987</v>
       </c>
       <c r="M34" t="n">
-        <v>943.5061796880898</v>
+        <v>943.5061796880899</v>
       </c>
       <c r="N34" t="n">
         <v>1252.35566000561</v>
       </c>
       <c r="O34" t="n">
-        <v>1526.55615684558</v>
+        <v>1526.556156845581</v>
       </c>
       <c r="P34" t="n">
-        <v>1747.009231017419</v>
+        <v>1747.00923101742</v>
       </c>
       <c r="Q34" t="n">
-        <v>1836.130585812579</v>
+        <v>1836.13058581258</v>
       </c>
       <c r="R34" t="n">
-        <v>1783.205584559865</v>
+        <v>1783.205584559866</v>
       </c>
       <c r="S34" t="n">
-        <v>1646.294250936905</v>
+        <v>1646.294250936906</v>
       </c>
       <c r="T34" t="n">
-        <v>1487.838528027255</v>
+        <v>1487.838528027256</v>
       </c>
       <c r="U34" t="n">
-        <v>1264.78384646872</v>
+        <v>1264.783846468722</v>
       </c>
       <c r="V34" t="n">
-        <v>1076.182939606177</v>
+        <v>1076.182939606179</v>
       </c>
       <c r="W34" t="n">
-        <v>852.8493509125606</v>
+        <v>852.8493509125622</v>
       </c>
       <c r="X34" t="n">
-        <v>690.9433813578871</v>
+        <v>690.9433813578887</v>
       </c>
       <c r="Y34" t="n">
-        <v>536.234383557701</v>
+        <v>536.2343835577027</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2008.867944068154</v>
+        <v>2074.951525411498</v>
       </c>
       <c r="C35" t="n">
-        <v>1705.989008471086</v>
+        <v>1772.07258981443</v>
       </c>
       <c r="D35" t="n">
-        <v>1413.806891207679</v>
+        <v>1479.890472551024</v>
       </c>
       <c r="E35" t="n">
-        <v>1094.102219952779</v>
+        <v>1127.144010624451</v>
       </c>
       <c r="F35" t="n">
-        <v>749.1998965065154</v>
+        <v>716.1581058348434</v>
       </c>
       <c r="G35" t="n">
-        <v>398.7643558832554</v>
+        <v>365.7225652115834</v>
       </c>
       <c r="H35" t="n">
-        <v>152.4486091448134</v>
+        <v>119.4068184731416</v>
       </c>
       <c r="I35" t="n">
-        <v>87.72068603922818</v>
+        <v>87.72068603922817</v>
       </c>
       <c r="J35" t="n">
         <v>323.6644151360128</v>
@@ -6941,40 +6941,40 @@
         <v>798.0277071975943</v>
       </c>
       <c r="L35" t="n">
-        <v>1438.793944613803</v>
+        <v>1438.793944613804</v>
       </c>
       <c r="M35" t="n">
-        <v>2168.376391648545</v>
+        <v>2168.376391648546</v>
       </c>
       <c r="N35" t="n">
-        <v>2895.132247885461</v>
+        <v>2895.132247885462</v>
       </c>
       <c r="O35" t="n">
-        <v>3536.199556729538</v>
+        <v>3536.199556729539</v>
       </c>
       <c r="P35" t="n">
-        <v>4045.661290304049</v>
+        <v>4045.66129030405</v>
       </c>
       <c r="Q35" t="n">
-        <v>4351.024075401909</v>
+        <v>4351.02407540191</v>
       </c>
       <c r="R35" t="n">
-        <v>4386.034301961409</v>
+        <v>4386.034301961408</v>
       </c>
       <c r="S35" t="n">
-        <v>4242.777599581659</v>
+        <v>4308.861180925002</v>
       </c>
       <c r="T35" t="n">
-        <v>4030.4670461106</v>
+        <v>4096.550627453944</v>
       </c>
       <c r="U35" t="n">
-        <v>3776.820835639508</v>
+        <v>3842.904416982852</v>
       </c>
       <c r="V35" t="n">
-        <v>3445.757948295938</v>
+        <v>3511.841529639281</v>
       </c>
       <c r="W35" t="n">
-        <v>3092.989293025823</v>
+        <v>3159.072874369167</v>
       </c>
       <c r="X35" t="n">
         <v>2785.607116108087</v>
@@ -6990,67 +6990,67 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4239893354733</v>
+        <v>987.423989335473</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9709600543463</v>
+        <v>812.9709600543461</v>
       </c>
       <c r="D36" t="n">
-        <v>664.036550393095</v>
+        <v>664.0365503930948</v>
       </c>
       <c r="E36" t="n">
-        <v>504.7990953876395</v>
+        <v>504.7990953876393</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2645374145244</v>
+        <v>358.2645374145243</v>
       </c>
       <c r="G36" t="n">
-        <v>221.1273995886999</v>
+        <v>221.1273995886998</v>
       </c>
       <c r="H36" t="n">
-        <v>123.1499309989767</v>
+        <v>123.1499309989766</v>
       </c>
       <c r="I36" t="n">
-        <v>87.72068603922818</v>
+        <v>87.72068603922817</v>
       </c>
       <c r="J36" t="n">
         <v>234.5537750299091</v>
       </c>
       <c r="K36" t="n">
-        <v>612.135754460113</v>
+        <v>350.3151698176602</v>
       </c>
       <c r="L36" t="n">
-        <v>1181.245718601244</v>
+        <v>552.2931921083665</v>
       </c>
       <c r="M36" t="n">
-        <v>1436.301412098914</v>
+        <v>1107.617534698805</v>
       </c>
       <c r="N36" t="n">
-        <v>1712.516315777313</v>
+        <v>1858.381388977322</v>
       </c>
       <c r="O36" t="n">
-        <v>1942.979194482768</v>
+        <v>2088.844267682778</v>
       </c>
       <c r="P36" t="n">
-        <v>2423.891047320447</v>
+        <v>2569.756120520457</v>
       </c>
       <c r="Q36" t="n">
-        <v>2630.558674086841</v>
+        <v>2630.55867408684</v>
       </c>
       <c r="R36" t="n">
         <v>2628.337572473598</v>
       </c>
       <c r="S36" t="n">
-        <v>2484.522275951708</v>
+        <v>2484.522275951707</v>
       </c>
       <c r="T36" t="n">
-        <v>2288.759360681718</v>
+        <v>2288.759360681717</v>
       </c>
       <c r="U36" t="n">
         <v>2060.640590285972</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.48848205423</v>
+        <v>1825.488482054229</v>
       </c>
       <c r="W36" t="n">
         <v>1571.251125326028</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>511.3312459193315</v>
+        <v>509.4611460635141</v>
       </c>
       <c r="C37" t="n">
-        <v>408.4786443347685</v>
+        <v>406.6085444789513</v>
       </c>
       <c r="D37" t="n">
-        <v>408.4786443347685</v>
+        <v>322.5754864099596</v>
       </c>
       <c r="E37" t="n">
-        <v>326.6491320957193</v>
+        <v>240.7459741709105</v>
       </c>
       <c r="F37" t="n">
-        <v>326.6491320957193</v>
+        <v>240.7459741709105</v>
       </c>
       <c r="G37" t="n">
-        <v>224.380949642554</v>
+        <v>138.4777917177453</v>
       </c>
       <c r="H37" t="n">
-        <v>138.4777917177455</v>
+        <v>138.4777917177453</v>
       </c>
       <c r="I37" t="n">
-        <v>87.72068603922818</v>
+        <v>87.72068603922817</v>
       </c>
       <c r="J37" t="n">
-        <v>152.6456806599608</v>
+        <v>152.645680659961</v>
       </c>
       <c r="K37" t="n">
-        <v>347.5081744811334</v>
+        <v>347.5081744811336</v>
       </c>
       <c r="L37" t="n">
-        <v>634.2786263260982</v>
+        <v>634.2786263260986</v>
       </c>
       <c r="M37" t="n">
-        <v>943.5061796880896</v>
+        <v>943.50617968809</v>
       </c>
       <c r="N37" t="n">
         <v>1252.35566000561</v>
       </c>
       <c r="O37" t="n">
-        <v>1526.55615684558</v>
+        <v>1526.556156845581</v>
       </c>
       <c r="P37" t="n">
-        <v>1747.009231017419</v>
+        <v>1747.00923101742</v>
       </c>
       <c r="Q37" t="n">
-        <v>1836.130585812579</v>
+        <v>1836.13058581258</v>
       </c>
       <c r="R37" t="n">
-        <v>1783.205584559865</v>
+        <v>1783.205584559866</v>
       </c>
       <c r="S37" t="n">
-        <v>1646.294250936905</v>
+        <v>1646.294250936906</v>
       </c>
       <c r="T37" t="n">
-        <v>1487.838528027254</v>
+        <v>1487.838528027256</v>
       </c>
       <c r="U37" t="n">
-        <v>1264.78384646872</v>
+        <v>1264.783846468722</v>
       </c>
       <c r="V37" t="n">
-        <v>1076.182939606178</v>
+        <v>1076.182939606179</v>
       </c>
       <c r="W37" t="n">
-        <v>852.8493509125608</v>
+        <v>852.8493509125622</v>
       </c>
       <c r="X37" t="n">
-        <v>781.6051272064135</v>
+        <v>690.9433813578888</v>
       </c>
       <c r="Y37" t="n">
-        <v>626.8961294062273</v>
+        <v>536.2343835577028</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2074.951525411497</v>
+        <v>2174.076897426513</v>
       </c>
       <c r="C38" t="n">
-        <v>1772.072589814429</v>
+        <v>1805.114380486101</v>
       </c>
       <c r="D38" t="n">
-        <v>1479.890472551022</v>
+        <v>1446.848681879351</v>
       </c>
       <c r="E38" t="n">
-        <v>1094.102219952778</v>
+        <v>1127.144010624451</v>
       </c>
       <c r="F38" t="n">
-        <v>716.1581058348436</v>
+        <v>782.2416871781872</v>
       </c>
       <c r="G38" t="n">
-        <v>365.7225652115836</v>
+        <v>431.8061465549274</v>
       </c>
       <c r="H38" t="n">
-        <v>119.4068184731417</v>
+        <v>119.4068184731416</v>
       </c>
       <c r="I38" t="n">
-        <v>87.72068603922817</v>
+        <v>87.72068603922816</v>
       </c>
       <c r="J38" t="n">
-        <v>323.6644151360128</v>
+        <v>323.6644151360129</v>
       </c>
       <c r="K38" t="n">
         <v>798.0277071975943</v>
       </c>
       <c r="L38" t="n">
-        <v>1438.793944613804</v>
+        <v>1438.793944613803</v>
       </c>
       <c r="M38" t="n">
-        <v>2168.376391648546</v>
+        <v>2168.376391648545</v>
       </c>
       <c r="N38" t="n">
-        <v>2895.132247885462</v>
+        <v>2895.132247885461</v>
       </c>
       <c r="O38" t="n">
-        <v>3536.199556729539</v>
+        <v>3536.199556729538</v>
       </c>
       <c r="P38" t="n">
-        <v>4045.66129030405</v>
+        <v>4045.661290304049</v>
       </c>
       <c r="Q38" t="n">
-        <v>4351.02407540191</v>
+        <v>4351.024075401909</v>
       </c>
       <c r="R38" t="n">
-        <v>4386.034301961408</v>
+        <v>4386.034301961407</v>
       </c>
       <c r="S38" t="n">
-        <v>4308.861180925002</v>
+        <v>4242.777599581657</v>
       </c>
       <c r="T38" t="n">
-        <v>4162.634208797287</v>
+        <v>4096.550627453942</v>
       </c>
       <c r="U38" t="n">
-        <v>3908.987998326195</v>
+        <v>3842.90441698285</v>
       </c>
       <c r="V38" t="n">
-        <v>3577.925110982625</v>
+        <v>3577.925110982624</v>
       </c>
       <c r="W38" t="n">
-        <v>3225.15645571251</v>
+        <v>3258.198246384183</v>
       </c>
       <c r="X38" t="n">
-        <v>2851.69069745143</v>
+        <v>2884.732488123103</v>
       </c>
       <c r="Y38" t="n">
-        <v>2461.551365475619</v>
+        <v>2494.593156147291</v>
       </c>
     </row>
     <row r="39">
@@ -7248,25 +7248,25 @@
         <v>123.1499309989766</v>
       </c>
       <c r="I39" t="n">
-        <v>87.72068603922817</v>
+        <v>87.72068603922816</v>
       </c>
       <c r="J39" t="n">
         <v>234.5537750299091</v>
       </c>
       <c r="K39" t="n">
-        <v>612.135754460113</v>
+        <v>350.3151698176601</v>
       </c>
       <c r="L39" t="n">
-        <v>1181.245718601244</v>
+        <v>552.2931921083664</v>
       </c>
       <c r="M39" t="n">
-        <v>1582.166485298923</v>
+        <v>1268.396898718537</v>
       </c>
       <c r="N39" t="n">
-        <v>1858.381388977322</v>
+        <v>1544.611802396935</v>
       </c>
       <c r="O39" t="n">
-        <v>2088.844267682778</v>
+        <v>2164.998377186353</v>
       </c>
       <c r="P39" t="n">
         <v>2569.756120520457</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>536.2343835577012</v>
+        <v>487.9993297649153</v>
       </c>
       <c r="C40" t="n">
-        <v>536.2343835577012</v>
+        <v>385.1467281803525</v>
       </c>
       <c r="D40" t="n">
-        <v>489.285010489335</v>
+        <v>301.1136701113608</v>
       </c>
       <c r="E40" t="n">
-        <v>407.4554982502858</v>
+        <v>219.2841578723117</v>
       </c>
       <c r="F40" t="n">
-        <v>326.6491320957193</v>
+        <v>138.4777917177453</v>
       </c>
       <c r="G40" t="n">
-        <v>224.380949642554</v>
+        <v>138.4777917177453</v>
       </c>
       <c r="H40" t="n">
-        <v>138.4777917177454</v>
+        <v>138.4777917177453</v>
       </c>
       <c r="I40" t="n">
-        <v>87.72068603922817</v>
+        <v>87.72068603922816</v>
       </c>
       <c r="J40" t="n">
         <v>152.6456806599609</v>
       </c>
       <c r="K40" t="n">
-        <v>347.5081744811335</v>
+        <v>347.5081744811336</v>
       </c>
       <c r="L40" t="n">
         <v>634.2786263260984</v>
@@ -7351,10 +7351,10 @@
         <v>1747.009231017419</v>
       </c>
       <c r="Q40" t="n">
-        <v>1836.130585812579</v>
+        <v>1836.13058581258</v>
       </c>
       <c r="R40" t="n">
-        <v>1783.205584559865</v>
+        <v>1783.205584559866</v>
       </c>
       <c r="S40" t="n">
         <v>1646.294250936905</v>
@@ -7369,13 +7369,13 @@
         <v>1076.182939606178</v>
       </c>
       <c r="W40" t="n">
-        <v>852.8493509125609</v>
+        <v>920.1791806066705</v>
       </c>
       <c r="X40" t="n">
-        <v>690.9433813578875</v>
+        <v>758.2732110519971</v>
       </c>
       <c r="Y40" t="n">
-        <v>536.2343835577012</v>
+        <v>603.564213251811</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2207.118688098186</v>
+        <v>2207.118688098185</v>
       </c>
       <c r="C41" t="n">
         <v>1871.197961829446</v>
@@ -7397,10 +7397,10 @@
         <v>1193.227591967795</v>
       </c>
       <c r="F41" t="n">
-        <v>815.2834778498595</v>
+        <v>815.2834778498593</v>
       </c>
       <c r="G41" t="n">
-        <v>431.8061465549276</v>
+        <v>431.8061465549275</v>
       </c>
       <c r="H41" t="n">
         <v>152.4486091448136</v>
@@ -7412,10 +7412,10 @@
         <v>323.6644151360128</v>
       </c>
       <c r="K41" t="n">
-        <v>798.0277071975943</v>
+        <v>798.0277071975951</v>
       </c>
       <c r="L41" t="n">
-        <v>1438.793944613803</v>
+        <v>1438.793944613804</v>
       </c>
       <c r="M41" t="n">
         <v>2168.376391648546</v>
@@ -7439,16 +7439,16 @@
         <v>4275.81939025333</v>
       </c>
       <c r="T41" t="n">
-        <v>4096.550627453943</v>
+        <v>4096.550627453944</v>
       </c>
       <c r="U41" t="n">
-        <v>3875.946207654523</v>
+        <v>3875.946207654524</v>
       </c>
       <c r="V41" t="n">
         <v>3577.925110982625</v>
       </c>
       <c r="W41" t="n">
-        <v>3258.198246384182</v>
+        <v>3258.198246384183</v>
       </c>
       <c r="X41" t="n">
         <v>2917.774278794775</v>
@@ -7488,25 +7488,25 @@
         <v>87.72068603922817</v>
       </c>
       <c r="J42" t="n">
-        <v>234.5537750299091</v>
+        <v>167.6904822722529</v>
       </c>
       <c r="K42" t="n">
-        <v>612.135754460113</v>
+        <v>283.451877060004</v>
       </c>
       <c r="L42" t="n">
-        <v>1181.245718601244</v>
+        <v>852.5618412011348</v>
       </c>
       <c r="M42" t="n">
-        <v>1436.301412098914</v>
+        <v>1107.617534698805</v>
       </c>
       <c r="N42" t="n">
-        <v>1712.516315777313</v>
+        <v>1858.381388977322</v>
       </c>
       <c r="O42" t="n">
-        <v>1942.979194482768</v>
+        <v>2088.844267682778</v>
       </c>
       <c r="P42" t="n">
-        <v>2423.891047320447</v>
+        <v>2569.756120520457</v>
       </c>
       <c r="Q42" t="n">
         <v>2630.55867408684</v>
@@ -7543,43 +7543,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>537.752561081157</v>
+        <v>98.79277781026602</v>
       </c>
       <c r="C43" t="n">
-        <v>537.752561081157</v>
+        <v>98.79277781026602</v>
       </c>
       <c r="D43" t="n">
-        <v>420.6777123404931</v>
+        <v>98.79277781026602</v>
       </c>
       <c r="E43" t="n">
-        <v>420.6777123404931</v>
+        <v>98.79277781026602</v>
       </c>
       <c r="F43" t="n">
-        <v>306.8295555142547</v>
+        <v>87.72068603922817</v>
       </c>
       <c r="G43" t="n">
-        <v>171.5195823894175</v>
+        <v>87.72068603922817</v>
       </c>
       <c r="H43" t="n">
-        <v>171.5195823894175</v>
+        <v>87.72068603922817</v>
       </c>
       <c r="I43" t="n">
         <v>87.72068603922817</v>
       </c>
       <c r="J43" t="n">
-        <v>120.2614216226552</v>
+        <v>120.2614216226553</v>
       </c>
       <c r="K43" t="n">
-        <v>282.739656406522</v>
+        <v>282.7396564065222</v>
       </c>
       <c r="L43" t="n">
-        <v>537.1258492141811</v>
+        <v>537.1258492141815</v>
       </c>
       <c r="M43" t="n">
-        <v>813.9691435388667</v>
+        <v>813.9691435388669</v>
       </c>
       <c r="N43" t="n">
-        <v>1090.434364819081</v>
+        <v>1090.434364819082</v>
       </c>
       <c r="O43" t="n">
         <v>1332.250602621746</v>
@@ -7594,25 +7594,25 @@
         <v>1577.056513514133</v>
       </c>
       <c r="S43" t="n">
-        <v>1577.056513514133</v>
+        <v>1407.103389219501</v>
       </c>
       <c r="T43" t="n">
-        <v>1385.558999932811</v>
+        <v>1215.605875638179</v>
       </c>
       <c r="U43" t="n">
-        <v>1129.462527702605</v>
+        <v>959.509403407973</v>
       </c>
       <c r="V43" t="n">
-        <v>907.8198301683899</v>
+        <v>737.8667058737581</v>
       </c>
       <c r="W43" t="n">
-        <v>651.4444508031011</v>
+        <v>481.4913265084695</v>
       </c>
       <c r="X43" t="n">
-        <v>651.4444508031011</v>
+        <v>286.5435662821241</v>
       </c>
       <c r="Y43" t="n">
-        <v>651.4444508031011</v>
+        <v>98.79277781026602</v>
       </c>
     </row>
     <row r="44">
@@ -7625,22 +7625,22 @@
         <v>2207.118688098185</v>
       </c>
       <c r="C44" t="n">
-        <v>1871.197961829445</v>
+        <v>1871.197961829446</v>
       </c>
       <c r="D44" t="n">
         <v>1545.974053894367</v>
       </c>
       <c r="E44" t="n">
-        <v>1193.227591967794</v>
+        <v>1193.227591967795</v>
       </c>
       <c r="F44" t="n">
-        <v>815.2834778498586</v>
+        <v>815.2834778498593</v>
       </c>
       <c r="G44" t="n">
-        <v>431.8061465549267</v>
+        <v>431.8061465549274</v>
       </c>
       <c r="H44" t="n">
-        <v>152.4486091448136</v>
+        <v>152.4486091448135</v>
       </c>
       <c r="I44" t="n">
         <v>87.72068603922817</v>
@@ -7673,19 +7673,19 @@
         <v>4386.034301961408</v>
       </c>
       <c r="S44" t="n">
-        <v>4275.81939025333</v>
+        <v>4275.819390253331</v>
       </c>
       <c r="T44" t="n">
-        <v>4096.550627453943</v>
+        <v>4096.550627453944</v>
       </c>
       <c r="U44" t="n">
-        <v>3875.946207654523</v>
+        <v>3875.946207654524</v>
       </c>
       <c r="V44" t="n">
         <v>3577.925110982625</v>
       </c>
       <c r="W44" t="n">
-        <v>3258.198246384182</v>
+        <v>3258.198246384183</v>
       </c>
       <c r="X44" t="n">
         <v>2917.774278794775</v>
@@ -7731,19 +7731,19 @@
         <v>350.3151698176602</v>
       </c>
       <c r="L45" t="n">
-        <v>706.7919690421727</v>
+        <v>583.4407086998381</v>
       </c>
       <c r="M45" t="n">
-        <v>1422.895675652343</v>
+        <v>1299.544415310008</v>
       </c>
       <c r="N45" t="n">
-        <v>2173.65952993086</v>
+        <v>1575.759318988407</v>
       </c>
       <c r="O45" t="n">
-        <v>2404.122408636315</v>
+        <v>2196.145893777825</v>
       </c>
       <c r="P45" t="n">
-        <v>2569.756120520457</v>
+        <v>2361.779605661966</v>
       </c>
       <c r="Q45" t="n">
         <v>2630.55867408684</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>200.5767743577379</v>
+        <v>221.9232244938032</v>
       </c>
       <c r="C46" t="n">
-        <v>200.5767743577379</v>
+        <v>87.72068603922817</v>
       </c>
       <c r="D46" t="n">
-        <v>200.5767743577379</v>
+        <v>87.72068603922817</v>
       </c>
       <c r="E46" t="n">
-        <v>200.5767743577379</v>
+        <v>87.72068603922817</v>
       </c>
       <c r="F46" t="n">
-        <v>200.5767743577379</v>
+        <v>87.72068603922817</v>
       </c>
       <c r="G46" t="n">
-        <v>200.5767743577379</v>
+        <v>87.72068603922817</v>
       </c>
       <c r="H46" t="n">
-        <v>171.5195823894175</v>
+        <v>87.72068603922817</v>
       </c>
       <c r="I46" t="n">
         <v>87.72068603922817</v>
@@ -7807,10 +7807,10 @@
         <v>120.2614216226552</v>
       </c>
       <c r="K46" t="n">
-        <v>282.7396564065222</v>
+        <v>282.7396564065221</v>
       </c>
       <c r="L46" t="n">
-        <v>537.1258492141814</v>
+        <v>537.1258492141812</v>
       </c>
       <c r="M46" t="n">
         <v>813.9691435388668</v>
@@ -7828,28 +7828,28 @@
         <v>1577.056513514133</v>
       </c>
       <c r="R46" t="n">
-        <v>1491.089721589747</v>
+        <v>1491.089721589748</v>
       </c>
       <c r="S46" t="n">
-        <v>1321.136597295115</v>
+        <v>1491.089721589748</v>
       </c>
       <c r="T46" t="n">
-        <v>1129.639083713793</v>
+        <v>1299.592208008426</v>
       </c>
       <c r="U46" t="n">
-        <v>873.5426114835868</v>
+        <v>1043.49573577822</v>
       </c>
       <c r="V46" t="n">
-        <v>651.8999139493719</v>
+        <v>821.8530382440049</v>
       </c>
       <c r="W46" t="n">
-        <v>395.5245345840833</v>
+        <v>565.4776588787163</v>
       </c>
       <c r="X46" t="n">
-        <v>200.5767743577379</v>
+        <v>370.5298986523709</v>
       </c>
       <c r="Y46" t="n">
-        <v>200.5767743577379</v>
+        <v>370.5298986523709</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>111.9557551135104</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,19 +8064,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>343.6144454008227</v>
+        <v>114.9120274903385</v>
       </c>
       <c r="N3" t="n">
-        <v>410.9184265079545</v>
+        <v>410.9184265079543</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>103.8956309563516</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>119.8749085884559</v>
+        <v>119.874908588456</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,10 +8298,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8544,13 +8544,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8772,16 +8772,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>156.0593706402084</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>264.5613996803028</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298301</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,28 +9003,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>166.9378366913089</v>
       </c>
       <c r="N15" t="n">
-        <v>124.3164838045167</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9246,10 +9246,10 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>303.3016657502711</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>156.0593706402082</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9477,10 +9477,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9489,16 +9489,16 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>327.8174423949253</v>
       </c>
       <c r="O21" t="n">
-        <v>147.3384577777861</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>17.94137551363622</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>286.9502555757434</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,10 +9954,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>124.3164838045167</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9966,13 +9966,13 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>201.7264070545163</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,28 +10188,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>147.338457777787</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>143.9158627180385</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,16 +10425,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>124.3164838045167</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>358.7930000490137</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10443,10 +10443,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298392</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,16 +10665,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>303.301665750271</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>147.3384577777875</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,22 +10902,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>147.338457777787</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>241.5394257070325</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -11060,13 +11060,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711657</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928335</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>58.55235578722076</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11148,7 +11148,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>147.338457777787</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11379,22 +11379,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>156.0593706402083</v>
+        <v>31.46213797118344</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>147.120607416982</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>134.5354483336725</v>
       </c>
       <c r="D13" t="n">
         <v>115.9041002532571</v>
@@ -23425,7 +23425,7 @@
         <v>113.7225898816139</v>
       </c>
       <c r="F13" t="n">
-        <v>29.27748651647778</v>
+        <v>112.709675257976</v>
       </c>
       <c r="G13" t="n">
         <v>133.9568733935888</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>85.10712400514191</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.2535930516859</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>74.14575315181426</v>
       </c>
       <c r="Y13" t="n">
-        <v>185.8732805871395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>147.120607416982</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>134.5354483336725</v>
       </c>
       <c r="D16" t="n">
         <v>115.9041002532571</v>
@@ -23665,13 +23665,13 @@
         <v>112.709675257976</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>133.9568733935888</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>117.7554991105157</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>82.96090738668731</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,16 +23704,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>189.582538445509</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>27.65465421724329</v>
+        <v>74.14575315181423</v>
       </c>
       <c r="V16" t="n">
-        <v>219.4262705588727</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>253.8116255716357</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>147.120607416982</v>
       </c>
       <c r="C19" t="n">
-        <v>134.5354483336725</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>115.9041002532571</v>
@@ -23902,13 +23902,13 @@
         <v>112.709675257976</v>
       </c>
       <c r="G19" t="n">
-        <v>54.87772106363753</v>
+        <v>133.9568733935888</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>107.0104300371304</v>
       </c>
       <c r="I19" t="n">
-        <v>82.96090738668732</v>
+        <v>82.96090738668731</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>85.10712400514191</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>219.4262705588727</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>185.8732805871395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24145,7 +24145,7 @@
         <v>117.7554991105157</v>
       </c>
       <c r="I22" t="n">
-        <v>82.96090738668732</v>
+        <v>82.96090738668731</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>85.10712400514191</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>208.1026265454028</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>122.9955025402608</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>28.26807794471469</v>
       </c>
       <c r="C25" t="n">
         <v>134.5354483336725</v>
@@ -24373,16 +24373,16 @@
         <v>113.7225898816139</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>112.709675257976</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>133.9568733935888</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>117.7554991105157</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>82.96090738668731</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>60.98693457083469</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.2535930516859</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>253.5355075079039</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>192.9982826240819</v>
       </c>
       <c r="Y25" t="n">
-        <v>185.8732805871395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>147.120607416982</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>134.5354483336725</v>
@@ -24610,13 +24610,13 @@
         <v>113.7225898816139</v>
       </c>
       <c r="F28" t="n">
-        <v>112.709675257976</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>133.9568733935888</v>
       </c>
       <c r="H28" t="n">
-        <v>6.027971675190841</v>
+        <v>117.7554991105157</v>
       </c>
       <c r="I28" t="n">
         <v>82.9609073866873</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>189.582538445509</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>144.3934973812627</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>185.8732805871395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>147.1206074169821</v>
       </c>
       <c r="C31" t="n">
-        <v>84.82140431018715</v>
+        <v>134.5354483336726</v>
       </c>
       <c r="D31" t="n">
-        <v>115.9041002532571</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>113.7225898816139</v>
+        <v>113.722589881614</v>
       </c>
       <c r="F31" t="n">
         <v>112.709675257976</v>
       </c>
       <c r="G31" t="n">
-        <v>133.9568733935888</v>
+        <v>133.9568733935889</v>
       </c>
       <c r="H31" t="n">
         <v>117.7554991105157</v>
       </c>
       <c r="I31" t="n">
-        <v>82.9609073866873</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>85.10712400514191</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,13 +24898,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>87.13748020462013</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>185.8732805871395</v>
+        <v>185.8732805871396</v>
       </c>
     </row>
     <row r="32">
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>89.75512839004134</v>
+        <v>101.8240755687172</v>
       </c>
       <c r="D34" t="n">
-        <v>83.19272748830187</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>79.99830249302076</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>15.8284218353515</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>85.04412634556039</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>50.249534621732</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25309,25 +25309,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>87.90372953277999</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>83.19272748830187</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>79.99830249302076</v>
+        <v>79.99830249302066</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>85.04412634556037</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>89.75512839004129</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25546,13 +25546,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>114.4092346520268</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>101.8240755687173</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>36.71284815061908</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25561,10 +25561,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>101.2455006286335</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>85.04412634556037</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>66.65653139716737</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25783,28 +25783,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>34.56563659225741</v>
+        <v>147.120607416982</v>
       </c>
       <c r="C43" t="n">
-        <v>134.5354483336726</v>
+        <v>134.5354483336725</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>115.9041002532571</v>
       </c>
       <c r="E43" t="n">
-        <v>113.722589881614</v>
+        <v>113.7225898816139</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>101.7483044046483</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>133.9568733935888</v>
       </c>
       <c r="H43" t="n">
-        <v>117.7554991105158</v>
+        <v>117.7554991105157</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>82.9609073866873</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>85.10712400514197</v>
+        <v>85.10712400514191</v>
       </c>
       <c r="S43" t="n">
-        <v>168.2535930516859</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>192.9982826240819</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>185.8732805871396</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>147.1206074169821</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>134.5354483336726</v>
+        <v>1.67493526364332</v>
       </c>
       <c r="D46" t="n">
         <v>115.9041002532571</v>
       </c>
       <c r="E46" t="n">
-        <v>113.722589881614</v>
+        <v>113.7225898816139</v>
       </c>
       <c r="F46" t="n">
         <v>112.709675257976</v>
       </c>
       <c r="G46" t="n">
-        <v>133.9568733935889</v>
+        <v>133.9568733935888</v>
       </c>
       <c r="H46" t="n">
-        <v>88.98887906187905</v>
+        <v>117.7554991105157</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>82.96090738668732</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.2535930516859</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>185.8732805871396</v>
+        <v>185.8732805871395</v>
       </c>
     </row>
   </sheetData>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>744033.986843569</v>
+        <v>744033.9868435689</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>744033.9868435687</v>
+        <v>744033.9868435689</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>744033.9868435687</v>
+        <v>744033.986843569</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>761346.9964106561</v>
+        <v>761346.9964106563</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>761346.9964106561</v>
+        <v>761346.9964106563</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>744033.9868435687</v>
+        <v>744033.9868435689</v>
       </c>
     </row>
   </sheetData>
@@ -26311,43 +26311,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380341</v>
+        <v>677359.4601380337</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380333</v>
+        <v>677359.460138033</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380334</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="E2" t="n">
         <v>656909.7933451494</v>
       </c>
       <c r="F2" t="n">
-        <v>656909.7933451491</v>
+        <v>656909.7933451493</v>
       </c>
       <c r="G2" t="n">
-        <v>656909.7933451491</v>
+        <v>656909.7933451493</v>
       </c>
       <c r="H2" t="n">
         <v>656909.7933451493</v>
       </c>
       <c r="I2" t="n">
+        <v>656909.7933451493</v>
+      </c>
+      <c r="J2" t="n">
+        <v>656909.7933451493</v>
+      </c>
+      <c r="K2" t="n">
         <v>656909.793345149</v>
       </c>
-      <c r="J2" t="n">
-        <v>656909.7933451494</v>
-      </c>
-      <c r="K2" t="n">
-        <v>656909.7933451493</v>
-      </c>
       <c r="L2" t="n">
-        <v>672351.1262022799</v>
+        <v>672351.1262022801</v>
       </c>
       <c r="M2" t="n">
-        <v>672351.1262022798</v>
+        <v>672351.1262022801</v>
       </c>
       <c r="N2" t="n">
-        <v>672351.1262022803</v>
+        <v>672351.1262022802</v>
       </c>
       <c r="O2" t="n">
         <v>656909.7933451493</v>
@@ -26363,10 +26363,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>177988.4907831669</v>
+        <v>177988.4907831666</v>
       </c>
       <c r="C3" t="n">
-        <v>391573.4678838878</v>
+        <v>391573.4678838882</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>110037.558736206</v>
       </c>
       <c r="K3" t="n">
-        <v>91042.15318889862</v>
+        <v>91042.15318889868</v>
       </c>
       <c r="L3" t="n">
-        <v>26169.09821196417</v>
+        <v>26169.0982119643</v>
       </c>
       <c r="M3" t="n">
-        <v>105219.2375269714</v>
+        <v>105219.2375269715</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>260797.2823715939</v>
+        <v>260797.282371594</v>
       </c>
       <c r="C4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="D4" t="n">
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
+        <v>41281.59940821265</v>
+      </c>
+      <c r="F4" t="n">
         <v>41281.59940821264</v>
       </c>
-      <c r="F4" t="n">
-        <v>41281.59940821261</v>
-      </c>
       <c r="G4" t="n">
+        <v>41281.59940821264</v>
+      </c>
+      <c r="H4" t="n">
+        <v>41281.59940821262</v>
+      </c>
+      <c r="I4" t="n">
+        <v>41281.5994082127</v>
+      </c>
+      <c r="J4" t="n">
+        <v>41281.59940821267</v>
+      </c>
+      <c r="K4" t="n">
+        <v>41281.59940821259</v>
+      </c>
+      <c r="L4" t="n">
+        <v>52045.27123639255</v>
+      </c>
+      <c r="M4" t="n">
+        <v>52045.27123639249</v>
+      </c>
+      <c r="N4" t="n">
+        <v>52045.27123639257</v>
+      </c>
+      <c r="O4" t="n">
         <v>41281.59940821263</v>
       </c>
-      <c r="H4" t="n">
+      <c r="P4" t="n">
         <v>41281.59940821264</v>
-      </c>
-      <c r="I4" t="n">
-        <v>41281.59940821263</v>
-      </c>
-      <c r="J4" t="n">
-        <v>41281.59940821266</v>
-      </c>
-      <c r="K4" t="n">
-        <v>41281.59940821261</v>
-      </c>
-      <c r="L4" t="n">
-        <v>52045.27123639246</v>
-      </c>
-      <c r="M4" t="n">
-        <v>52045.27123639246</v>
-      </c>
-      <c r="N4" t="n">
-        <v>52045.27123639249</v>
-      </c>
-      <c r="O4" t="n">
-        <v>41281.59940821264</v>
-      </c>
-      <c r="P4" t="n">
-        <v>41281.59940821258</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>54713.13125989682</v>
+        <v>54713.13125989679</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26476,7 +26476,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>85408.37568903157</v>
+        <v>85408.37568903159</v>
       </c>
       <c r="F5" t="n">
         <v>85408.37568903159</v>
@@ -26488,7 +26488,7 @@
         <v>85408.37568903159</v>
       </c>
       <c r="I5" t="n">
-        <v>85408.37568903159</v>
+        <v>85408.37568903157</v>
       </c>
       <c r="J5" t="n">
         <v>85408.37568903159</v>
@@ -26500,7 +26500,7 @@
         <v>88158.38808600861</v>
       </c>
       <c r="M5" t="n">
-        <v>88158.38808600862</v>
+        <v>88158.38808600861</v>
       </c>
       <c r="N5" t="n">
         <v>88158.38808600861</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>183860.5557233764</v>
+        <v>183860.5557233763</v>
       </c>
       <c r="C6" t="n">
-        <v>55009.86547481516</v>
+        <v>55009.86547481455</v>
       </c>
       <c r="D6" t="n">
-        <v>446583.3333587031</v>
+        <v>446583.3333587033</v>
       </c>
       <c r="E6" t="n">
-        <v>92156.4202282038</v>
+        <v>92094.45154095262</v>
       </c>
       <c r="F6" t="n">
-        <v>530219.818247905</v>
+        <v>530157.8495606538</v>
       </c>
       <c r="G6" t="n">
-        <v>530219.818247905</v>
+        <v>530157.8495606538</v>
       </c>
       <c r="H6" t="n">
-        <v>530219.818247905</v>
+        <v>530157.8495606539</v>
       </c>
       <c r="I6" t="n">
-        <v>530219.8182479049</v>
+        <v>530157.8495606538</v>
       </c>
       <c r="J6" t="n">
-        <v>420182.2595116991</v>
+        <v>420120.2908244478</v>
       </c>
       <c r="K6" t="n">
-        <v>439177.6650590065</v>
+        <v>439115.696371755</v>
       </c>
       <c r="L6" t="n">
-        <v>505978.3686679148</v>
+        <v>505963.1918984124</v>
       </c>
       <c r="M6" t="n">
-        <v>426928.2293529074</v>
+        <v>426913.0525834052</v>
       </c>
       <c r="N6" t="n">
-        <v>532147.4668798791</v>
+        <v>532132.2901103768</v>
       </c>
       <c r="O6" t="n">
-        <v>530219.818247905</v>
+        <v>530157.8495606539</v>
       </c>
       <c r="P6" t="n">
-        <v>530219.818247905</v>
+        <v>530157.8495606538</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>32.71137276495527</v>
       </c>
       <c r="J2" t="n">
-        <v>32.71137276495528</v>
+        <v>32.71137276495529</v>
       </c>
       <c r="K2" t="n">
-        <v>32.71137276495528</v>
+        <v>32.71137276495521</v>
       </c>
       <c r="L2" t="n">
-        <v>65.42274552991049</v>
+        <v>65.42274552991059</v>
       </c>
       <c r="M2" t="n">
-        <v>65.42274552991049</v>
+        <v>65.42274552991059</v>
       </c>
       <c r="N2" t="n">
-        <v>65.42274552991049</v>
+        <v>65.42274552991059</v>
       </c>
       <c r="O2" t="n">
-        <v>32.71137276495521</v>
+        <v>32.71137276495529</v>
       </c>
       <c r="P2" t="n">
-        <v>32.71137276495521</v>
+        <v>32.71137276495527</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>73.23143701010012</v>
+        <v>73.23143701009987</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>733.5156835890438</v>
@@ -26753,7 +26753,7 @@
         <v>733.5156835890438</v>
       </c>
       <c r="H3" t="n">
-        <v>733.5156835890439</v>
+        <v>733.5156835890438</v>
       </c>
       <c r="I3" t="n">
         <v>733.5156835890438</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>320.5441765308657</v>
+        <v>320.5441765308655</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>32.71137276495527</v>
+        <v>32.7113727649553</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>32.71137276495521</v>
+        <v>32.71137276495537</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>73.23143701010012</v>
+        <v>73.23143701009987</v>
       </c>
       <c r="C3" t="n">
-        <v>304.5122272069865</v>
+        <v>304.5122272069868</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>320.5441765308657</v>
+        <v>320.5441765308655</v>
       </c>
       <c r="C4" t="n">
-        <v>353.7430962236899</v>
+        <v>353.7430962236901</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>422.2213027357963</v>
+        <v>422.2213027357965</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>320.5441765308657</v>
+        <v>320.5441765308655</v>
       </c>
       <c r="K4" t="n">
-        <v>353.7430962236899</v>
+        <v>353.7430962236901</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>422.2213027357965</v>
+        <v>422.2213027357967</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>32.71137276495527</v>
+        <v>32.7113727649553</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>320.5441765308657</v>
+        <v>320.5441765308655</v>
       </c>
       <c r="K4" t="n">
-        <v>353.7430962236899</v>
+        <v>353.7430962236901</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>422.2213027357963</v>
+        <v>422.2213027357965</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>62.18966513261483</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,19 +27385,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>252.855601015657</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>243.1235029331394</v>
       </c>
       <c r="H2" t="n">
-        <v>15.91562476367653</v>
+        <v>15.91562476367683</v>
       </c>
       <c r="I2" t="n">
-        <v>199.1261208253531</v>
+        <v>199.1261208253532</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,19 +27424,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>131.3761561116595</v>
       </c>
       <c r="S2" t="n">
-        <v>202.3114811606467</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.807123471622</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.3221010888986</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>7.208081939269448</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>65.69376212518785</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27458,7 +27458,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27467,13 +27467,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>89.7766378624589</v>
+        <v>124.3076143225217</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.1860004873776</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>110.7141647620036</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27503,22 +27503,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>90.37798299872824</v>
+        <v>90.37798299872829</v>
       </c>
       <c r="S3" t="n">
-        <v>168.7573679365003</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>199.5298259531963</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9310191417753</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27546,7 +27546,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.8589226687684</v>
@@ -27555,13 +27555,13 @@
         <v>161.0530684845563</v>
       </c>
       <c r="I4" t="n">
-        <v>73.09534302991617</v>
+        <v>151.4791701136614</v>
       </c>
       <c r="J4" t="n">
-        <v>84.02277215556542</v>
+        <v>84.02277215556545</v>
       </c>
       <c r="K4" t="n">
-        <v>6.926905514586471</v>
+        <v>6.926905514586524</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>75.10409626316927</v>
+        <v>75.10409626316931</v>
       </c>
       <c r="R4" t="n">
         <v>171.3556424025473</v>
@@ -27591,7 +27591,7 @@
         <v>227.3813472086955</v>
       </c>
       <c r="U4" t="n">
-        <v>286.311826264326</v>
+        <v>281.0916045097446</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>303.5536158948776</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,19 +27622,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>167.3488113658422</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,10 +27670,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27713,7 +27713,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2.202682480856311e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27822,19 +27822,19 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>21.87414536972213</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>56.25950038248513</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>352.7530169886914</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>394.0166118086806</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,22 +27898,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,22 +28053,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>152.7633694534029</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28336,7 +28336,7 @@
         <v>32.71137276495527</v>
       </c>
       <c r="F14" t="n">
-        <v>32.71137276495449</v>
+        <v>32.71137276495527</v>
       </c>
       <c r="G14" t="n">
         <v>32.71137276495527</v>
@@ -28630,7 +28630,7 @@
         <v>32.71137276495527</v>
       </c>
       <c r="Y17" t="n">
-        <v>32.71137276495489</v>
+        <v>32.71137276495527</v>
       </c>
     </row>
     <row r="18">
@@ -28855,7 +28855,7 @@
         <v>32.71137276495527</v>
       </c>
       <c r="U20" t="n">
-        <v>32.71137276495527</v>
+        <v>32.71137276495477</v>
       </c>
       <c r="V20" t="n">
         <v>32.71137276495527</v>
@@ -29095,7 +29095,7 @@
         <v>32.71137276495527</v>
       </c>
       <c r="V23" t="n">
-        <v>32.71137276495527</v>
+        <v>32.71137276495654</v>
       </c>
       <c r="W23" t="n">
         <v>32.71137276495527</v>
@@ -29104,7 +29104,7 @@
         <v>32.71137276495527</v>
       </c>
       <c r="Y23" t="n">
-        <v>32.71137276495489</v>
+        <v>32.71137276495527</v>
       </c>
     </row>
     <row r="24">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>32.71137276495528</v>
+        <v>32.71137276495529</v>
       </c>
       <c r="C26" t="n">
-        <v>32.71137276495528</v>
+        <v>32.71137276495529</v>
       </c>
       <c r="D26" t="n">
-        <v>32.71137276495528</v>
+        <v>32.71137276495529</v>
       </c>
       <c r="E26" t="n">
-        <v>32.71137276495528</v>
+        <v>32.71137276495529</v>
       </c>
       <c r="F26" t="n">
-        <v>32.71137276495528</v>
+        <v>32.71137276495529</v>
       </c>
       <c r="G26" t="n">
-        <v>32.71137276495528</v>
+        <v>32.71137276495529</v>
       </c>
       <c r="H26" t="n">
-        <v>32.71137276495528</v>
+        <v>32.71137276495529</v>
       </c>
       <c r="I26" t="n">
-        <v>32.71137276495528</v>
+        <v>32.71137276495529</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>32.71137276495528</v>
+        <v>32.71137276495529</v>
       </c>
       <c r="T26" t="n">
-        <v>32.71137276495528</v>
+        <v>32.71137276495529</v>
       </c>
       <c r="U26" t="n">
-        <v>32.71137276495528</v>
+        <v>32.71137276495529</v>
       </c>
       <c r="V26" t="n">
-        <v>32.71137276495528</v>
+        <v>32.71137276495529</v>
       </c>
       <c r="W26" t="n">
-        <v>32.71137276495528</v>
+        <v>32.71137276495529</v>
       </c>
       <c r="X26" t="n">
-        <v>32.71137276495528</v>
+        <v>32.71137276495529</v>
       </c>
       <c r="Y26" t="n">
-        <v>32.71137276495528</v>
+        <v>32.71137276495529</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>32.71137276495528</v>
+        <v>32.71137276495529</v>
       </c>
       <c r="C28" t="n">
-        <v>32.71137276495528</v>
+        <v>32.71137276495529</v>
       </c>
       <c r="D28" t="n">
-        <v>32.71137276495528</v>
+        <v>32.71137276495529</v>
       </c>
       <c r="E28" t="n">
-        <v>32.71137276495528</v>
+        <v>32.71137276495529</v>
       </c>
       <c r="F28" t="n">
-        <v>32.71137276495528</v>
+        <v>32.71137276495529</v>
       </c>
       <c r="G28" t="n">
-        <v>32.71137276495528</v>
+        <v>32.71137276495529</v>
       </c>
       <c r="H28" t="n">
-        <v>32.71137276495528</v>
+        <v>32.71137276495529</v>
       </c>
       <c r="I28" t="n">
-        <v>32.71137276495528</v>
+        <v>32.71137276495529</v>
       </c>
       <c r="J28" t="n">
-        <v>32.71137276495528</v>
+        <v>32.71137276495529</v>
       </c>
       <c r="K28" t="n">
-        <v>32.71137276495528</v>
+        <v>32.71137276495529</v>
       </c>
       <c r="L28" t="n">
-        <v>32.71137276495528</v>
+        <v>32.71137276495529</v>
       </c>
       <c r="M28" t="n">
-        <v>32.71137276495528</v>
+        <v>32.71137276495529</v>
       </c>
       <c r="N28" t="n">
-        <v>32.71137276495528</v>
+        <v>32.71137276495529</v>
       </c>
       <c r="O28" t="n">
-        <v>32.71137276495528</v>
+        <v>32.71137276495529</v>
       </c>
       <c r="P28" t="n">
-        <v>32.71137276495528</v>
+        <v>32.71137276495529</v>
       </c>
       <c r="Q28" t="n">
-        <v>32.71137276495528</v>
+        <v>32.71137276495529</v>
       </c>
       <c r="R28" t="n">
-        <v>32.71137276495528</v>
+        <v>32.71137276495529</v>
       </c>
       <c r="S28" t="n">
-        <v>32.71137276495528</v>
+        <v>32.71137276495529</v>
       </c>
       <c r="T28" t="n">
-        <v>32.71137276495528</v>
+        <v>32.71137276495529</v>
       </c>
       <c r="U28" t="n">
-        <v>32.71137276495528</v>
+        <v>32.71137276495529</v>
       </c>
       <c r="V28" t="n">
-        <v>32.71137276495528</v>
+        <v>32.71137276495529</v>
       </c>
       <c r="W28" t="n">
-        <v>32.71137276495528</v>
+        <v>32.71137276495529</v>
       </c>
       <c r="X28" t="n">
-        <v>32.71137276495528</v>
+        <v>32.71137276495529</v>
       </c>
       <c r="Y28" t="n">
-        <v>32.71137276495528</v>
+        <v>32.71137276495529</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>32.71137276495528</v>
+        <v>32.71137276495521</v>
       </c>
       <c r="C29" t="n">
-        <v>32.71137276495528</v>
+        <v>32.71137276495521</v>
       </c>
       <c r="D29" t="n">
-        <v>32.71137276495528</v>
+        <v>32.71137276495521</v>
       </c>
       <c r="E29" t="n">
-        <v>32.71137276495528</v>
+        <v>32.71137276495521</v>
       </c>
       <c r="F29" t="n">
-        <v>32.71137276495449</v>
+        <v>32.71137276495521</v>
       </c>
       <c r="G29" t="n">
-        <v>32.71137276495528</v>
+        <v>32.71137276495521</v>
       </c>
       <c r="H29" t="n">
-        <v>32.71137276495528</v>
+        <v>32.71137276495521</v>
       </c>
       <c r="I29" t="n">
-        <v>32.71137276495528</v>
+        <v>32.71137276495521</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>32.71137276495528</v>
+        <v>32.71137276495521</v>
       </c>
       <c r="T29" t="n">
-        <v>32.71137276495528</v>
+        <v>32.71137276495521</v>
       </c>
       <c r="U29" t="n">
-        <v>32.71137276495528</v>
+        <v>32.71137276495521</v>
       </c>
       <c r="V29" t="n">
-        <v>32.71137276495528</v>
+        <v>32.71137276495521</v>
       </c>
       <c r="W29" t="n">
-        <v>32.71137276495528</v>
+        <v>32.71137276495521</v>
       </c>
       <c r="X29" t="n">
-        <v>32.71137276495528</v>
+        <v>32.71137276495521</v>
       </c>
       <c r="Y29" t="n">
-        <v>32.71137276495528</v>
+        <v>32.71137276495521</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>32.71137276495528</v>
+        <v>32.71137276495521</v>
       </c>
       <c r="C31" t="n">
-        <v>32.71137276495528</v>
+        <v>32.71137276495521</v>
       </c>
       <c r="D31" t="n">
-        <v>32.71137276495528</v>
+        <v>32.71137276495521</v>
       </c>
       <c r="E31" t="n">
-        <v>32.71137276495528</v>
+        <v>32.71137276495521</v>
       </c>
       <c r="F31" t="n">
-        <v>32.71137276495528</v>
+        <v>32.71137276495521</v>
       </c>
       <c r="G31" t="n">
-        <v>32.71137276495528</v>
+        <v>32.71137276495521</v>
       </c>
       <c r="H31" t="n">
-        <v>32.71137276495528</v>
+        <v>32.71137276495521</v>
       </c>
       <c r="I31" t="n">
-        <v>32.71137276495528</v>
+        <v>32.71137276495521</v>
       </c>
       <c r="J31" t="n">
-        <v>32.71137276495528</v>
+        <v>32.71137276495521</v>
       </c>
       <c r="K31" t="n">
-        <v>32.71137276495528</v>
+        <v>32.71137276495521</v>
       </c>
       <c r="L31" t="n">
-        <v>32.71137276495528</v>
+        <v>32.71137276495521</v>
       </c>
       <c r="M31" t="n">
-        <v>32.71137276495528</v>
+        <v>32.71137276495521</v>
       </c>
       <c r="N31" t="n">
-        <v>32.71137276495528</v>
+        <v>32.71137276495521</v>
       </c>
       <c r="O31" t="n">
-        <v>32.71137276495528</v>
+        <v>32.71137276495521</v>
       </c>
       <c r="P31" t="n">
-        <v>32.71137276495528</v>
+        <v>32.71137276495521</v>
       </c>
       <c r="Q31" t="n">
-        <v>32.71137276495528</v>
+        <v>32.71137276495521</v>
       </c>
       <c r="R31" t="n">
-        <v>32.71137276495528</v>
+        <v>32.71137276495521</v>
       </c>
       <c r="S31" t="n">
-        <v>32.71137276495528</v>
+        <v>32.71137276495521</v>
       </c>
       <c r="T31" t="n">
-        <v>32.71137276495528</v>
+        <v>32.71137276495521</v>
       </c>
       <c r="U31" t="n">
-        <v>32.71137276495528</v>
+        <v>32.71137276495521</v>
       </c>
       <c r="V31" t="n">
-        <v>32.71137276495528</v>
+        <v>32.71137276495521</v>
       </c>
       <c r="W31" t="n">
-        <v>32.71137276495528</v>
+        <v>32.71137276495521</v>
       </c>
       <c r="X31" t="n">
-        <v>32.71137276495528</v>
+        <v>32.71137276495521</v>
       </c>
       <c r="Y31" t="n">
-        <v>32.71137276495528</v>
+        <v>32.71137276495521</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>65.42274552991049</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>65.42274552991049</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>65.42274552991049</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>65.42274552991059</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>65.42274552991059</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>65.42274552991059</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>65.42274552991059</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>65.42274552991059</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>65.42274552991049</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>65.42274552991049</v>
+        <v>32.7113727649562</v>
       </c>
       <c r="U32" t="n">
-        <v>65.42274552991049</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>65.42274552991049</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>32.71137276495563</v>
+        <v>65.42274552991059</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>65.42274552991059</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>65.42274552991049</v>
+        <v>65.42274552991059</v>
       </c>
       <c r="C34" t="n">
-        <v>65.42274552991049</v>
+        <v>65.42274552991059</v>
       </c>
       <c r="D34" t="n">
-        <v>65.42274552991049</v>
+        <v>65.42274552991059</v>
       </c>
       <c r="E34" t="n">
-        <v>65.42274552991049</v>
+        <v>65.42274552991059</v>
       </c>
       <c r="F34" t="n">
-        <v>65.42274552991049</v>
+        <v>65.42274552991059</v>
       </c>
       <c r="G34" t="n">
-        <v>65.42274552991049</v>
+        <v>65.42274552991059</v>
       </c>
       <c r="H34" t="n">
-        <v>65.42274552991049</v>
+        <v>65.42274552991059</v>
       </c>
       <c r="I34" t="n">
-        <v>65.42274552991049</v>
+        <v>65.42274552991059</v>
       </c>
       <c r="J34" t="n">
-        <v>65.42274552991049</v>
+        <v>65.42274552991059</v>
       </c>
       <c r="K34" t="n">
-        <v>65.42274552991049</v>
+        <v>65.42274552991059</v>
       </c>
       <c r="L34" t="n">
-        <v>65.42274552991049</v>
+        <v>65.42274552991059</v>
       </c>
       <c r="M34" t="n">
-        <v>65.42274552991049</v>
+        <v>65.42274552991059</v>
       </c>
       <c r="N34" t="n">
-        <v>65.42274552991049</v>
+        <v>65.42274552991059</v>
       </c>
       <c r="O34" t="n">
-        <v>65.42274552991049</v>
+        <v>65.42274552991059</v>
       </c>
       <c r="P34" t="n">
-        <v>65.42274552991049</v>
+        <v>65.42274552991059</v>
       </c>
       <c r="Q34" t="n">
-        <v>65.42274552991049</v>
+        <v>65.42274552991059</v>
       </c>
       <c r="R34" t="n">
-        <v>65.42274552991049</v>
+        <v>65.42274552991059</v>
       </c>
       <c r="S34" t="n">
-        <v>65.42274552991049</v>
+        <v>65.42274552991059</v>
       </c>
       <c r="T34" t="n">
-        <v>65.42274552991049</v>
+        <v>65.42274552991059</v>
       </c>
       <c r="U34" t="n">
-        <v>65.42274552991049</v>
+        <v>65.42274552991059</v>
       </c>
       <c r="V34" t="n">
-        <v>65.42274552991049</v>
+        <v>65.42274552991059</v>
       </c>
       <c r="W34" t="n">
-        <v>65.42274552991049</v>
+        <v>65.42274552991059</v>
       </c>
       <c r="X34" t="n">
-        <v>65.42274552991049</v>
+        <v>65.42274552991059</v>
       </c>
       <c r="Y34" t="n">
-        <v>65.42274552991049</v>
+        <v>65.42274552991059</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>65.42274552991059</v>
       </c>
       <c r="C35" t="n">
-        <v>65.42274552991049</v>
+        <v>65.42274552991059</v>
       </c>
       <c r="D35" t="n">
-        <v>65.42274552991049</v>
+        <v>65.42274552991059</v>
       </c>
       <c r="E35" t="n">
-        <v>65.42274552991049</v>
+        <v>32.71137276495483</v>
       </c>
       <c r="F35" t="n">
-        <v>65.42274552991049</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>65.42274552991049</v>
+        <v>65.42274552991059</v>
       </c>
       <c r="H35" t="n">
-        <v>65.42274552991049</v>
+        <v>65.42274552991059</v>
       </c>
       <c r="I35" t="n">
-        <v>32.71137276495544</v>
+        <v>65.42274552991059</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>65.42274552991059</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30049,7 +30049,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>65.42274552991049</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>65.42274552991049</v>
+        <v>65.42274552991059</v>
       </c>
       <c r="C37" t="n">
-        <v>65.42274552991049</v>
+        <v>65.42274552991059</v>
       </c>
       <c r="D37" t="n">
-        <v>65.42274552991049</v>
+        <v>65.42274552991059</v>
       </c>
       <c r="E37" t="n">
-        <v>65.42274552991049</v>
+        <v>65.42274552991059</v>
       </c>
       <c r="F37" t="n">
-        <v>65.42274552991049</v>
+        <v>65.42274552991059</v>
       </c>
       <c r="G37" t="n">
-        <v>65.42274552991049</v>
+        <v>65.42274552991059</v>
       </c>
       <c r="H37" t="n">
-        <v>65.42274552991049</v>
+        <v>65.42274552991059</v>
       </c>
       <c r="I37" t="n">
-        <v>65.42274552991049</v>
+        <v>65.42274552991059</v>
       </c>
       <c r="J37" t="n">
-        <v>65.42274552991049</v>
+        <v>65.42274552991059</v>
       </c>
       <c r="K37" t="n">
-        <v>65.42274552991049</v>
+        <v>65.42274552991059</v>
       </c>
       <c r="L37" t="n">
-        <v>65.42274552991049</v>
+        <v>65.42274552991059</v>
       </c>
       <c r="M37" t="n">
-        <v>65.42274552991049</v>
+        <v>65.42274552991059</v>
       </c>
       <c r="N37" t="n">
-        <v>65.42274552991049</v>
+        <v>65.42274552991059</v>
       </c>
       <c r="O37" t="n">
-        <v>65.42274552991049</v>
+        <v>65.42274552991059</v>
       </c>
       <c r="P37" t="n">
-        <v>65.42274552991049</v>
+        <v>65.42274552991059</v>
       </c>
       <c r="Q37" t="n">
-        <v>65.42274552991049</v>
+        <v>65.42274552991059</v>
       </c>
       <c r="R37" t="n">
-        <v>65.42274552991049</v>
+        <v>65.42274552991059</v>
       </c>
       <c r="S37" t="n">
-        <v>65.42274552991049</v>
+        <v>65.42274552991059</v>
       </c>
       <c r="T37" t="n">
-        <v>65.42274552991049</v>
+        <v>65.42274552991059</v>
       </c>
       <c r="U37" t="n">
-        <v>65.42274552991049</v>
+        <v>65.42274552991059</v>
       </c>
       <c r="V37" t="n">
-        <v>65.42274552991049</v>
+        <v>65.42274552991059</v>
       </c>
       <c r="W37" t="n">
-        <v>65.42274552991049</v>
+        <v>65.42274552991059</v>
       </c>
       <c r="X37" t="n">
-        <v>65.42274552991049</v>
+        <v>65.42274552991059</v>
       </c>
       <c r="Y37" t="n">
-        <v>65.42274552991049</v>
+        <v>65.42274552991059</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>65.42274552991059</v>
       </c>
       <c r="C38" t="n">
-        <v>65.42274552991049</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>65.42274552991049</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>65.42274552991059</v>
       </c>
       <c r="F38" t="n">
-        <v>32.71137276495625</v>
+        <v>65.42274552991059</v>
       </c>
       <c r="G38" t="n">
-        <v>65.42274552991049</v>
+        <v>65.42274552991059</v>
       </c>
       <c r="H38" t="n">
-        <v>65.42274552991049</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>65.42274552991049</v>
+        <v>65.42274552991059</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,19 +30271,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>65.42274552991049</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>65.42274552991049</v>
+        <v>65.42274552991059</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>65.42274552991059</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>32.71137276495654</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>65.42274552991049</v>
+        <v>65.42274552991059</v>
       </c>
       <c r="C40" t="n">
-        <v>65.42274552991049</v>
+        <v>65.42274552991059</v>
       </c>
       <c r="D40" t="n">
-        <v>65.42274552991049</v>
+        <v>65.42274552991059</v>
       </c>
       <c r="E40" t="n">
-        <v>65.42274552991049</v>
+        <v>65.42274552991059</v>
       </c>
       <c r="F40" t="n">
-        <v>65.42274552991049</v>
+        <v>65.42274552991059</v>
       </c>
       <c r="G40" t="n">
-        <v>65.42274552991049</v>
+        <v>65.42274552991059</v>
       </c>
       <c r="H40" t="n">
-        <v>65.42274552991049</v>
+        <v>65.42274552991059</v>
       </c>
       <c r="I40" t="n">
-        <v>65.42274552991049</v>
+        <v>65.42274552991059</v>
       </c>
       <c r="J40" t="n">
-        <v>65.42274552991049</v>
+        <v>65.42274552991059</v>
       </c>
       <c r="K40" t="n">
-        <v>65.42274552991049</v>
+        <v>65.42274552991059</v>
       </c>
       <c r="L40" t="n">
-        <v>65.42274552991049</v>
+        <v>65.42274552991059</v>
       </c>
       <c r="M40" t="n">
-        <v>65.42274552991049</v>
+        <v>65.42274552991059</v>
       </c>
       <c r="N40" t="n">
-        <v>65.42274552991049</v>
+        <v>65.42274552991059</v>
       </c>
       <c r="O40" t="n">
-        <v>65.42274552991049</v>
+        <v>65.42274552991059</v>
       </c>
       <c r="P40" t="n">
-        <v>65.42274552991049</v>
+        <v>65.42274552991059</v>
       </c>
       <c r="Q40" t="n">
-        <v>65.42274552991049</v>
+        <v>65.42274552991059</v>
       </c>
       <c r="R40" t="n">
-        <v>65.42274552991049</v>
+        <v>65.42274552991059</v>
       </c>
       <c r="S40" t="n">
-        <v>65.42274552991049</v>
+        <v>65.42274552991059</v>
       </c>
       <c r="T40" t="n">
-        <v>65.42274552991049</v>
+        <v>65.42274552991059</v>
       </c>
       <c r="U40" t="n">
-        <v>65.42274552991049</v>
+        <v>65.42274552991059</v>
       </c>
       <c r="V40" t="n">
-        <v>65.42274552991049</v>
+        <v>65.42274552991059</v>
       </c>
       <c r="W40" t="n">
-        <v>65.42274552991049</v>
+        <v>65.42274552991059</v>
       </c>
       <c r="X40" t="n">
-        <v>65.42274552991049</v>
+        <v>65.42274552991059</v>
       </c>
       <c r="Y40" t="n">
-        <v>65.42274552991049</v>
+        <v>65.42274552991059</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>32.71137276495521</v>
+        <v>32.71137276495472</v>
       </c>
       <c r="C41" t="n">
-        <v>32.71137276495521</v>
+        <v>32.71137276495529</v>
       </c>
       <c r="D41" t="n">
-        <v>32.71137276495521</v>
+        <v>32.71137276495529</v>
       </c>
       <c r="E41" t="n">
-        <v>32.71137276495521</v>
+        <v>32.71137276495529</v>
       </c>
       <c r="F41" t="n">
-        <v>32.71137276495521</v>
+        <v>32.71137276495529</v>
       </c>
       <c r="G41" t="n">
-        <v>32.71137276495521</v>
+        <v>32.71137276495529</v>
       </c>
       <c r="H41" t="n">
-        <v>32.71137276495521</v>
+        <v>32.71137276495529</v>
       </c>
       <c r="I41" t="n">
-        <v>32.71137276495521</v>
+        <v>32.71137276495529</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>32.71137276495521</v>
+        <v>32.71137276495529</v>
       </c>
       <c r="T41" t="n">
-        <v>32.71137276495521</v>
+        <v>32.71137276495529</v>
       </c>
       <c r="U41" t="n">
-        <v>32.71137276495521</v>
+        <v>32.71137276495529</v>
       </c>
       <c r="V41" t="n">
-        <v>32.71137276495521</v>
+        <v>32.71137276495529</v>
       </c>
       <c r="W41" t="n">
-        <v>32.71137276495521</v>
+        <v>32.71137276495529</v>
       </c>
       <c r="X41" t="n">
-        <v>32.71137276495521</v>
+        <v>32.71137276495529</v>
       </c>
       <c r="Y41" t="n">
-        <v>32.71137276495625</v>
+        <v>32.71137276495529</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>32.71137276495521</v>
+        <v>32.71137276495529</v>
       </c>
       <c r="C43" t="n">
-        <v>32.71137276495521</v>
+        <v>32.71137276495529</v>
       </c>
       <c r="D43" t="n">
-        <v>32.71137276495521</v>
+        <v>32.71137276495529</v>
       </c>
       <c r="E43" t="n">
-        <v>32.71137276495521</v>
+        <v>32.71137276495529</v>
       </c>
       <c r="F43" t="n">
-        <v>32.71137276495521</v>
+        <v>32.71137276495529</v>
       </c>
       <c r="G43" t="n">
-        <v>32.71137276495521</v>
+        <v>32.71137276495529</v>
       </c>
       <c r="H43" t="n">
-        <v>32.71137276495521</v>
+        <v>32.71137276495529</v>
       </c>
       <c r="I43" t="n">
-        <v>32.71137276495521</v>
+        <v>32.71137276495529</v>
       </c>
       <c r="J43" t="n">
-        <v>32.71137276495521</v>
+        <v>32.71137276495529</v>
       </c>
       <c r="K43" t="n">
-        <v>32.71137276495521</v>
+        <v>32.71137276495529</v>
       </c>
       <c r="L43" t="n">
-        <v>32.71137276495521</v>
+        <v>32.71137276495529</v>
       </c>
       <c r="M43" t="n">
-        <v>32.71137276495521</v>
+        <v>32.71137276495529</v>
       </c>
       <c r="N43" t="n">
-        <v>32.71137276495521</v>
+        <v>32.71137276495529</v>
       </c>
       <c r="O43" t="n">
-        <v>32.71137276495521</v>
+        <v>32.71137276495529</v>
       </c>
       <c r="P43" t="n">
-        <v>32.71137276495521</v>
+        <v>32.71137276495529</v>
       </c>
       <c r="Q43" t="n">
-        <v>32.71137276495521</v>
+        <v>32.71137276495529</v>
       </c>
       <c r="R43" t="n">
-        <v>32.71137276495521</v>
+        <v>32.71137276495529</v>
       </c>
       <c r="S43" t="n">
-        <v>32.71137276495521</v>
+        <v>32.71137276495529</v>
       </c>
       <c r="T43" t="n">
-        <v>32.71137276495521</v>
+        <v>32.71137276495529</v>
       </c>
       <c r="U43" t="n">
-        <v>32.71137276495521</v>
+        <v>32.71137276495529</v>
       </c>
       <c r="V43" t="n">
-        <v>32.71137276495521</v>
+        <v>32.71137276495529</v>
       </c>
       <c r="W43" t="n">
-        <v>32.71137276495521</v>
+        <v>32.71137276495529</v>
       </c>
       <c r="X43" t="n">
-        <v>32.71137276495521</v>
+        <v>32.71137276495529</v>
       </c>
       <c r="Y43" t="n">
-        <v>32.71137276495521</v>
+        <v>32.71137276495529</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>32.71137276495521</v>
+        <v>32.71137276495527</v>
       </c>
       <c r="C44" t="n">
-        <v>32.71137276495521</v>
+        <v>32.71137276495527</v>
       </c>
       <c r="D44" t="n">
-        <v>32.71137276495521</v>
+        <v>32.71137276495527</v>
       </c>
       <c r="E44" t="n">
-        <v>32.71137276495521</v>
+        <v>32.71137276495527</v>
       </c>
       <c r="F44" t="n">
-        <v>32.71137276495521</v>
+        <v>32.71137276495527</v>
       </c>
       <c r="G44" t="n">
-        <v>32.71137276495521</v>
+        <v>32.71137276495527</v>
       </c>
       <c r="H44" t="n">
-        <v>32.71137276495521</v>
+        <v>32.71137276495527</v>
       </c>
       <c r="I44" t="n">
-        <v>32.71137276495521</v>
+        <v>32.71137276495527</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>32.71137276495521</v>
+        <v>32.71137276495527</v>
       </c>
       <c r="T44" t="n">
-        <v>32.71137276495521</v>
+        <v>32.71137276495527</v>
       </c>
       <c r="U44" t="n">
-        <v>32.71137276495521</v>
+        <v>32.71137276495527</v>
       </c>
       <c r="V44" t="n">
-        <v>32.71137276495521</v>
+        <v>32.71137276495527</v>
       </c>
       <c r="W44" t="n">
-        <v>32.71137276495521</v>
+        <v>32.71137276495527</v>
       </c>
       <c r="X44" t="n">
-        <v>32.71137276495521</v>
+        <v>32.71137276495527</v>
       </c>
       <c r="Y44" t="n">
-        <v>32.71137276495521</v>
+        <v>32.71137276495527</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>32.71137276495521</v>
+        <v>32.71137276495527</v>
       </c>
       <c r="C46" t="n">
-        <v>32.71137276495521</v>
+        <v>32.71137276495527</v>
       </c>
       <c r="D46" t="n">
-        <v>32.71137276495521</v>
+        <v>32.71137276495527</v>
       </c>
       <c r="E46" t="n">
-        <v>32.71137276495521</v>
+        <v>32.71137276495527</v>
       </c>
       <c r="F46" t="n">
-        <v>32.71137276495521</v>
+        <v>32.71137276495527</v>
       </c>
       <c r="G46" t="n">
-        <v>32.71137276495521</v>
+        <v>32.71137276495527</v>
       </c>
       <c r="H46" t="n">
-        <v>32.71137276495521</v>
+        <v>32.71137276495527</v>
       </c>
       <c r="I46" t="n">
-        <v>32.71137276495521</v>
+        <v>32.71137276495527</v>
       </c>
       <c r="J46" t="n">
-        <v>32.71137276495521</v>
+        <v>32.71137276495527</v>
       </c>
       <c r="K46" t="n">
-        <v>32.71137276495521</v>
+        <v>32.71137276495527</v>
       </c>
       <c r="L46" t="n">
-        <v>32.71137276495521</v>
+        <v>32.71137276495527</v>
       </c>
       <c r="M46" t="n">
-        <v>32.71137276495521</v>
+        <v>32.71137276495527</v>
       </c>
       <c r="N46" t="n">
-        <v>32.71137276495521</v>
+        <v>32.71137276495527</v>
       </c>
       <c r="O46" t="n">
-        <v>32.71137276495521</v>
+        <v>32.71137276495527</v>
       </c>
       <c r="P46" t="n">
-        <v>32.71137276495521</v>
+        <v>32.71137276495527</v>
       </c>
       <c r="Q46" t="n">
-        <v>32.71137276495521</v>
+        <v>32.71137276495527</v>
       </c>
       <c r="R46" t="n">
-        <v>32.71137276495521</v>
+        <v>32.71137276495527</v>
       </c>
       <c r="S46" t="n">
-        <v>32.71137276495521</v>
+        <v>32.71137276495527</v>
       </c>
       <c r="T46" t="n">
-        <v>32.71137276495521</v>
+        <v>32.71137276495527</v>
       </c>
       <c r="U46" t="n">
-        <v>32.71137276495521</v>
+        <v>32.71137276495527</v>
       </c>
       <c r="V46" t="n">
-        <v>32.71137276495521</v>
+        <v>32.71137276495527</v>
       </c>
       <c r="W46" t="n">
-        <v>32.71137276495521</v>
+        <v>32.71137276495527</v>
       </c>
       <c r="X46" t="n">
-        <v>32.71137276495521</v>
+        <v>32.71137276495527</v>
       </c>
       <c r="Y46" t="n">
-        <v>32.71137276495521</v>
+        <v>32.71137276495527</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2943977367240204</v>
+        <v>0.2943977367240194</v>
       </c>
       <c r="H2" t="n">
-        <v>3.015000821224874</v>
+        <v>3.015000821224864</v>
       </c>
       <c r="I2" t="n">
-        <v>11.34976874505281</v>
+        <v>11.34976874505277</v>
       </c>
       <c r="J2" t="n">
-        <v>24.98663990728035</v>
+        <v>24.98663990728026</v>
       </c>
       <c r="K2" t="n">
-        <v>37.44849610280814</v>
+        <v>37.44849610280801</v>
       </c>
       <c r="L2" t="n">
-        <v>46.45817083807589</v>
+        <v>46.45817083807572</v>
       </c>
       <c r="M2" t="n">
-        <v>51.69366658854168</v>
+        <v>51.6936665885415</v>
       </c>
       <c r="N2" t="n">
-        <v>52.53012415800881</v>
+        <v>52.53012415800863</v>
       </c>
       <c r="O2" t="n">
-        <v>49.60270666345933</v>
+        <v>49.60270666345915</v>
       </c>
       <c r="P2" t="n">
-        <v>42.33476253808507</v>
+        <v>42.33476253808492</v>
       </c>
       <c r="Q2" t="n">
-        <v>31.79164359165608</v>
+        <v>31.79164359165597</v>
       </c>
       <c r="R2" t="n">
-        <v>18.49296182949026</v>
+        <v>18.49296182949019</v>
       </c>
       <c r="S2" t="n">
-        <v>6.708588425598621</v>
+        <v>6.708588425598598</v>
       </c>
       <c r="T2" t="n">
-        <v>1.2887260925094</v>
+        <v>1.288726092509395</v>
       </c>
       <c r="U2" t="n">
-        <v>0.02355181893792162</v>
+        <v>0.02355181893792154</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1575166758330455</v>
+        <v>0.157516675833045</v>
       </c>
       <c r="H3" t="n">
-        <v>1.521279474492835</v>
+        <v>1.52127947449283</v>
       </c>
       <c r="I3" t="n">
-        <v>5.423271514427227</v>
+        <v>5.423271514427208</v>
       </c>
       <c r="J3" t="n">
-        <v>14.88187155315629</v>
+        <v>14.88187155315624</v>
       </c>
       <c r="K3" t="n">
-        <v>25.43548883397034</v>
+        <v>25.43548883397025</v>
       </c>
       <c r="L3" t="n">
-        <v>34.20115367155667</v>
+        <v>34.20115367155655</v>
       </c>
       <c r="M3" t="n">
-        <v>39.91113317050456</v>
+        <v>39.91113317050442</v>
       </c>
       <c r="N3" t="n">
-        <v>40.9674621062446</v>
+        <v>40.96746210624445</v>
       </c>
       <c r="O3" t="n">
-        <v>37.47722418383869</v>
+        <v>37.47722418383856</v>
       </c>
       <c r="P3" t="n">
-        <v>30.07877645797867</v>
+        <v>30.07877645797857</v>
       </c>
       <c r="Q3" t="n">
-        <v>20.10686549756561</v>
+        <v>20.10686549756554</v>
       </c>
       <c r="R3" t="n">
-        <v>9.779851153914885</v>
+        <v>9.77985115391485</v>
       </c>
       <c r="S3" t="n">
-        <v>2.925803167337489</v>
+        <v>2.925803167337479</v>
       </c>
       <c r="T3" t="n">
-        <v>0.6349027416253018</v>
+        <v>0.6349027416252996</v>
       </c>
       <c r="U3" t="n">
-        <v>0.01036293919954247</v>
+        <v>0.01036293919954244</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1320566896903445</v>
+        <v>0.132056689690344</v>
       </c>
       <c r="H4" t="n">
-        <v>1.174104022883245</v>
+        <v>1.174104022883241</v>
       </c>
       <c r="I4" t="n">
-        <v>3.971304813596906</v>
+        <v>3.971304813596892</v>
       </c>
       <c r="J4" t="n">
-        <v>9.336407961107353</v>
+        <v>9.336407961107321</v>
       </c>
       <c r="K4" t="n">
-        <v>15.34258631129638</v>
+        <v>15.34258631129633</v>
       </c>
       <c r="L4" t="n">
-        <v>19.63322821087176</v>
+        <v>19.63322821087169</v>
       </c>
       <c r="M4" t="n">
-        <v>20.7004863666419</v>
+        <v>20.70048636664183</v>
       </c>
       <c r="N4" t="n">
-        <v>20.20827506870518</v>
+        <v>20.20827506870511</v>
       </c>
       <c r="O4" t="n">
-        <v>18.66561283004979</v>
+        <v>18.66561283004972</v>
       </c>
       <c r="P4" t="n">
-        <v>15.97165636036675</v>
+        <v>15.97165636036669</v>
       </c>
       <c r="Q4" t="n">
-        <v>11.05794698852512</v>
+        <v>11.05794698852508</v>
       </c>
       <c r="R4" t="n">
-        <v>5.937748974622214</v>
+        <v>5.937748974622194</v>
       </c>
       <c r="S4" t="n">
-        <v>2.301387946694457</v>
+        <v>2.301387946694449</v>
       </c>
       <c r="T4" t="n">
-        <v>0.5642422195860172</v>
+        <v>0.5642422195860152</v>
       </c>
       <c r="U4" t="n">
-        <v>0.007203092164927889</v>
+        <v>0.007203092164927863</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32470,19 +32470,19 @@
         <v>113.6838729309211</v>
       </c>
       <c r="J20" t="n">
-        <v>250.2762884422739</v>
+        <v>250.2762884422738</v>
       </c>
       <c r="K20" t="n">
-        <v>375.0992789400597</v>
+        <v>375.0992789400596</v>
       </c>
       <c r="L20" t="n">
-        <v>465.3438240722736</v>
+        <v>465.3438240722735</v>
       </c>
       <c r="M20" t="n">
-        <v>517.7846664361998</v>
+        <v>517.7846664361997</v>
       </c>
       <c r="N20" t="n">
-        <v>526.16296366634</v>
+        <v>526.1629636663399</v>
       </c>
       <c r="O20" t="n">
         <v>496.8407663650794</v>
@@ -32491,19 +32491,19 @@
         <v>424.042099275212</v>
       </c>
       <c r="Q20" t="n">
-        <v>318.4379568891512</v>
+        <v>318.4379568891511</v>
       </c>
       <c r="R20" t="n">
         <v>185.2329831527649</v>
       </c>
       <c r="S20" t="n">
-        <v>67.19593423029283</v>
+        <v>67.19593423029282</v>
       </c>
       <c r="T20" t="n">
         <v>12.90840162778307</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2359045414557727</v>
+        <v>0.2359045414557726</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,13 +32540,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.577750715644359</v>
+        <v>1.577750715644358</v>
       </c>
       <c r="H21" t="n">
         <v>15.23775033267052</v>
       </c>
       <c r="I21" t="n">
-        <v>54.32168034126411</v>
+        <v>54.3216803412641</v>
       </c>
       <c r="J21" t="n">
         <v>149.0628428319962</v>
@@ -32555,31 +32555,31 @@
         <v>254.7721407801682</v>
       </c>
       <c r="L21" t="n">
-        <v>342.572584113921</v>
+        <v>342.5725841139209</v>
       </c>
       <c r="M21" t="n">
-        <v>399.7660475560289</v>
+        <v>399.7660475560288</v>
       </c>
       <c r="N21" t="n">
-        <v>410.346665293837</v>
+        <v>410.3466652938368</v>
       </c>
       <c r="O21" t="n">
         <v>375.3870310156119</v>
       </c>
       <c r="P21" t="n">
-        <v>301.2811870952811</v>
+        <v>301.281187095281</v>
       </c>
       <c r="Q21" t="n">
-        <v>201.3984948601466</v>
+        <v>201.3984948601465</v>
       </c>
       <c r="R21" t="n">
-        <v>97.95894355553311</v>
+        <v>97.9589435555331</v>
       </c>
       <c r="S21" t="n">
-        <v>29.30602754716603</v>
+        <v>29.30602754716602</v>
       </c>
       <c r="T21" t="n">
-        <v>6.359442577531425</v>
+        <v>6.359442577531424</v>
       </c>
       <c r="U21" t="n">
         <v>0.1037993891871289</v>
@@ -32628,7 +32628,7 @@
         <v>39.7781947756157</v>
       </c>
       <c r="J22" t="n">
-        <v>93.51723723396711</v>
+        <v>93.51723723396709</v>
       </c>
       <c r="K22" t="n">
         <v>153.6775481355406</v>
@@ -32640,10 +32640,10 @@
         <v>207.3444415102603</v>
       </c>
       <c r="N22" t="n">
-        <v>202.4142541287604</v>
+        <v>202.4142541287603</v>
       </c>
       <c r="O22" t="n">
-        <v>186.9623253843026</v>
+        <v>186.9623253843025</v>
       </c>
       <c r="P22" t="n">
         <v>159.9785681060432</v>
@@ -32652,16 +32652,16 @@
         <v>110.7608682219456</v>
       </c>
       <c r="R22" t="n">
-        <v>59.47489460707229</v>
+        <v>59.47489460707228</v>
       </c>
       <c r="S22" t="n">
         <v>23.05163222033109</v>
       </c>
       <c r="T22" t="n">
-        <v>5.651678217817222</v>
+        <v>5.651678217817221</v>
       </c>
       <c r="U22" t="n">
-        <v>0.07214908363170931</v>
+        <v>0.0721490836317093</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>13.03735055266783</v>
+        <v>13.03735055266774</v>
       </c>
       <c r="K2" t="n">
-        <v>141.5040576289923</v>
+        <v>141.5040576289922</v>
       </c>
       <c r="L2" t="n">
-        <v>228.3529704185391</v>
+        <v>228.3529704185389</v>
       </c>
       <c r="M2" t="n">
-        <v>270.8609668541014</v>
+        <v>270.8609668541013</v>
       </c>
       <c r="N2" t="n">
-        <v>260.463984973402</v>
+        <v>260.4639849734019</v>
       </c>
       <c r="O2" t="n">
-        <v>200.3046765045179</v>
+        <v>200.3046765045178</v>
       </c>
       <c r="P2" t="n">
-        <v>132.9004749542982</v>
+        <v>132.900474954298</v>
       </c>
       <c r="Q2" t="n">
-        <v>21.80094437711127</v>
+        <v>21.80094437711116</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>14.13528022689838</v>
       </c>
       <c r="K3" t="n">
         <v>152.0592868721899</v>
       </c>
       <c r="L3" t="n">
-        <v>266.4871191951416</v>
+        <v>266.4871191951415</v>
       </c>
       <c r="M3" t="n">
-        <v>241.3915446493089</v>
+        <v>12.68912673882464</v>
       </c>
       <c r="N3" t="n">
-        <v>320.5441765308657</v>
+        <v>320.5441765308655</v>
       </c>
       <c r="O3" t="n">
-        <v>288.7432990161238</v>
+        <v>288.7432990161236</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>214.5671376835855</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34860,19 +34860,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.2232534711879</v>
+        <v>47.22325347118783</v>
       </c>
       <c r="M4" t="n">
-        <v>60.28436332848249</v>
+        <v>60.28436332848242</v>
       </c>
       <c r="N4" t="n">
-        <v>64.34044744793377</v>
+        <v>64.3404474479337</v>
       </c>
       <c r="O4" t="n">
-        <v>43.25074074408946</v>
+        <v>43.2507407440894</v>
       </c>
       <c r="P4" t="n">
-        <v>13.25021562526024</v>
+        <v>13.25021562526018</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35018,10 +35018,10 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35492,16 +35492,16 @@
         <v>116.9307018058092</v>
       </c>
       <c r="L12" t="n">
-        <v>360.0775749742551</v>
+        <v>574.8585496375059</v>
       </c>
       <c r="M12" t="n">
         <v>723.3370773840104</v>
       </c>
       <c r="N12" t="n">
-        <v>758.3473275540571</v>
+        <v>279.0049532105036</v>
       </c>
       <c r="O12" t="n">
-        <v>232.7907865711674</v>
+        <v>497.3521862514702</v>
       </c>
       <c r="P12" t="n">
         <v>167.3067796809508</v>
@@ -35668,7 +35668,7 @@
         <v>308.4472576746063</v>
       </c>
       <c r="R14" t="n">
-        <v>35.3638652116158</v>
+        <v>35.36386521161523</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>148.3162515057383</v>
+        <v>22.22521616532947</v>
       </c>
       <c r="K15" t="n">
-        <v>381.3959388183878</v>
+        <v>116.9307018058092</v>
       </c>
       <c r="L15" t="n">
-        <v>204.0182043340467</v>
+        <v>574.8585496375059</v>
       </c>
       <c r="M15" t="n">
-        <v>257.6320136340105</v>
+        <v>424.5698503253194</v>
       </c>
       <c r="N15" t="n">
-        <v>403.3214370150203</v>
+        <v>758.3473275540571</v>
       </c>
       <c r="O15" t="n">
-        <v>626.653105847897</v>
+        <v>232.7907865711674</v>
       </c>
       <c r="P15" t="n">
-        <v>485.769548320888</v>
+        <v>167.3067796809508</v>
       </c>
       <c r="Q15" t="n">
-        <v>61.41672077412503</v>
+        <v>271.4940085099742</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35966,10 +35966,10 @@
         <v>116.9307018058092</v>
       </c>
       <c r="L18" t="n">
-        <v>204.0182043340467</v>
+        <v>507.3198700843178</v>
       </c>
       <c r="M18" t="n">
-        <v>723.3370773840104</v>
+        <v>257.6320136340105</v>
       </c>
       <c r="N18" t="n">
         <v>758.3473275540571</v>
@@ -35978,7 +35978,7 @@
         <v>232.7907865711674</v>
       </c>
       <c r="P18" t="n">
-        <v>323.366150321159</v>
+        <v>485.769548320888</v>
       </c>
       <c r="Q18" t="n">
         <v>61.41672077412503</v>
@@ -36121,28 +36121,28 @@
         <v>238.3269990876613</v>
       </c>
       <c r="K20" t="n">
-        <v>479.1548404662439</v>
+        <v>479.1548404662438</v>
       </c>
       <c r="L20" t="n">
-        <v>647.2386236527368</v>
+        <v>647.2386236527367</v>
       </c>
       <c r="M20" t="n">
-        <v>736.9519667017596</v>
+        <v>736.9519667017595</v>
       </c>
       <c r="N20" t="n">
-        <v>734.0968244817333</v>
+        <v>734.0968244817332</v>
       </c>
       <c r="O20" t="n">
-        <v>647.5427362061381</v>
+        <v>647.542736206138</v>
       </c>
       <c r="P20" t="n">
-        <v>514.6078116914251</v>
+        <v>514.607811691425</v>
       </c>
       <c r="Q20" t="n">
-        <v>308.4472576746064</v>
+        <v>308.4472576746063</v>
       </c>
       <c r="R20" t="n">
-        <v>35.36386521161526</v>
+        <v>35.36386521161523</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>148.3162515057383</v>
+        <v>22.22521616532947</v>
       </c>
       <c r="K21" t="n">
-        <v>381.3959388183878</v>
+        <v>116.9307018058092</v>
       </c>
       <c r="L21" t="n">
-        <v>574.858549637506</v>
+        <v>574.8585496375059</v>
       </c>
       <c r="M21" t="n">
         <v>257.6320136340105</v>
       </c>
       <c r="N21" t="n">
-        <v>279.0049532105037</v>
+        <v>606.8223956054288</v>
       </c>
       <c r="O21" t="n">
-        <v>380.1292443489536</v>
+        <v>232.7907865711674</v>
       </c>
       <c r="P21" t="n">
         <v>485.769548320888</v>
       </c>
       <c r="Q21" t="n">
-        <v>61.41672077412505</v>
+        <v>271.4940085099742</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>32.86942988224961</v>
+        <v>32.86942988224959</v>
       </c>
       <c r="K22" t="n">
         <v>164.119429074613</v>
@@ -36297,7 +36297,7 @@
         <v>189.9685001358919</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.31019773520651</v>
+        <v>57.31019773520649</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>148.3162515057383</v>
+        <v>22.22521616532947</v>
       </c>
       <c r="K24" t="n">
-        <v>116.9307018058092</v>
+        <v>381.3959388183878</v>
       </c>
       <c r="L24" t="n">
-        <v>574.8585496375059</v>
+        <v>204.0182043340467</v>
       </c>
       <c r="M24" t="n">
-        <v>257.6320136340105</v>
+        <v>723.3370773840104</v>
       </c>
       <c r="N24" t="n">
-        <v>296.9463287241398</v>
+        <v>279.0049532105036</v>
       </c>
       <c r="O24" t="n">
-        <v>626.653105847897</v>
+        <v>519.7410421469108</v>
       </c>
       <c r="P24" t="n">
-        <v>485.769548320888</v>
+        <v>167.3067796809508</v>
       </c>
       <c r="Q24" t="n">
-        <v>61.41672077412503</v>
+        <v>271.4940085099742</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,10 +36674,10 @@
         <v>148.3162515057383</v>
       </c>
       <c r="K27" t="n">
-        <v>381.3959388183878</v>
+        <v>116.9307018058092</v>
       </c>
       <c r="L27" t="n">
-        <v>328.3346881385634</v>
+        <v>574.8585496375059</v>
       </c>
       <c r="M27" t="n">
         <v>257.6320136340105</v>
@@ -36686,13 +36686,13 @@
         <v>279.0049532105036</v>
       </c>
       <c r="O27" t="n">
-        <v>626.653105847897</v>
+        <v>434.5171936256837</v>
       </c>
       <c r="P27" t="n">
         <v>485.769548320888</v>
       </c>
       <c r="Q27" t="n">
-        <v>61.41672077412503</v>
+        <v>271.4940085099742</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>32.8694298822496</v>
+        <v>32.86942988224961</v>
       </c>
       <c r="K28" t="n">
         <v>164.119429074613</v>
@@ -36771,7 +36771,7 @@
         <v>189.9685001358919</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.31019773520649</v>
+        <v>57.31019773520651</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>148.3162515057383</v>
+        <v>22.22521616532947</v>
       </c>
       <c r="K30" t="n">
-        <v>381.3959388183878</v>
+        <v>116.9307018058092</v>
       </c>
       <c r="L30" t="n">
-        <v>574.8585496375059</v>
+        <v>204.0182043340467</v>
       </c>
       <c r="M30" t="n">
-        <v>404.9704714117975</v>
+        <v>257.6320136340105</v>
       </c>
       <c r="N30" t="n">
-        <v>279.0049532105036</v>
+        <v>758.3473275540571</v>
       </c>
       <c r="O30" t="n">
-        <v>232.7907865711674</v>
+        <v>626.653105847897</v>
       </c>
       <c r="P30" t="n">
-        <v>485.769548320888</v>
+        <v>311.2226423989893</v>
       </c>
       <c r="Q30" t="n">
-        <v>61.41672077412503</v>
+        <v>271.4940085099742</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>32.8694298822496</v>
+        <v>32.86942988224953</v>
       </c>
       <c r="K31" t="n">
         <v>164.119429074613</v>
       </c>
       <c r="L31" t="n">
-        <v>256.9557503107669</v>
+        <v>256.9557503107668</v>
       </c>
       <c r="M31" t="n">
-        <v>279.6396912370562</v>
+        <v>279.6396912370561</v>
       </c>
       <c r="N31" t="n">
         <v>279.2577992729442</v>
       </c>
       <c r="O31" t="n">
-        <v>244.2588260632975</v>
+        <v>244.2588260632974</v>
       </c>
       <c r="P31" t="n">
         <v>189.9685001358919</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.31019773520649</v>
+        <v>57.31019773520643</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,16 +37145,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>148.3162515057383</v>
+        <v>22.22521616532947</v>
       </c>
       <c r="K33" t="n">
         <v>381.3959388183878</v>
       </c>
       <c r="L33" t="n">
-        <v>328.3346881385634</v>
+        <v>204.0182043340467</v>
       </c>
       <c r="M33" t="n">
-        <v>257.6320136340105</v>
+        <v>616.4250136830242</v>
       </c>
       <c r="N33" t="n">
         <v>279.0049532105036</v>
@@ -37163,10 +37163,10 @@
         <v>626.653105847897</v>
       </c>
       <c r="P33" t="n">
-        <v>485.769548320888</v>
+        <v>167.3067796809508</v>
       </c>
       <c r="Q33" t="n">
-        <v>61.41672077412503</v>
+        <v>271.4940085099742</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>65.58080264720481</v>
+        <v>65.58080264720491</v>
       </c>
       <c r="K34" t="n">
-        <v>196.8308018395682</v>
+        <v>196.8308018395683</v>
       </c>
       <c r="L34" t="n">
-        <v>289.6671230757221</v>
+        <v>289.6671230757222</v>
       </c>
       <c r="M34" t="n">
-        <v>312.3510640020114</v>
+        <v>312.3510640020115</v>
       </c>
       <c r="N34" t="n">
-        <v>311.9691720378994</v>
+        <v>311.9691720378995</v>
       </c>
       <c r="O34" t="n">
-        <v>276.9701988282527</v>
+        <v>276.9701988282528</v>
       </c>
       <c r="P34" t="n">
-        <v>222.6798729008471</v>
+        <v>222.6798729008472</v>
       </c>
       <c r="Q34" t="n">
-        <v>90.0215705001617</v>
+        <v>90.0215705001618</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>308.4472576746063</v>
       </c>
       <c r="R35" t="n">
-        <v>35.36386521161672</v>
+        <v>35.36386521161523</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,16 +37385,16 @@
         <v>148.3162515057383</v>
       </c>
       <c r="K36" t="n">
-        <v>381.3959388183878</v>
+        <v>116.9307018058092</v>
       </c>
       <c r="L36" t="n">
-        <v>574.8585496375059</v>
+        <v>204.0182043340467</v>
       </c>
       <c r="M36" t="n">
-        <v>257.6320136340105</v>
+        <v>560.9336793842815</v>
       </c>
       <c r="N36" t="n">
-        <v>279.0049532105036</v>
+        <v>758.3473275540571</v>
       </c>
       <c r="O36" t="n">
         <v>232.7907865711674</v>
@@ -37403,7 +37403,7 @@
         <v>485.769548320888</v>
       </c>
       <c r="Q36" t="n">
-        <v>208.7551785519125</v>
+        <v>61.41672077412503</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>65.58080264720481</v>
+        <v>65.58080264720491</v>
       </c>
       <c r="K37" t="n">
-        <v>196.8308018395682</v>
+        <v>196.8308018395683</v>
       </c>
       <c r="L37" t="n">
-        <v>289.6671230757221</v>
+        <v>289.6671230757222</v>
       </c>
       <c r="M37" t="n">
-        <v>312.3510640020114</v>
+        <v>312.3510640020115</v>
       </c>
       <c r="N37" t="n">
-        <v>311.9691720378994</v>
+        <v>311.9691720378995</v>
       </c>
       <c r="O37" t="n">
-        <v>276.9701988282527</v>
+        <v>276.9701988282528</v>
       </c>
       <c r="P37" t="n">
-        <v>222.6798729008471</v>
+        <v>222.6798729008472</v>
       </c>
       <c r="Q37" t="n">
-        <v>90.0215705001617</v>
+        <v>90.0215705001618</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37622,22 +37622,22 @@
         <v>148.3162515057383</v>
       </c>
       <c r="K39" t="n">
-        <v>381.3959388183878</v>
+        <v>116.9307018058092</v>
       </c>
       <c r="L39" t="n">
-        <v>574.8585496375059</v>
+        <v>204.0182043340467</v>
       </c>
       <c r="M39" t="n">
-        <v>404.9704714117975</v>
+        <v>723.3370773840104</v>
       </c>
       <c r="N39" t="n">
         <v>279.0049532105036</v>
       </c>
       <c r="O39" t="n">
-        <v>232.7907865711674</v>
+        <v>626.653105847897</v>
       </c>
       <c r="P39" t="n">
-        <v>485.769548320888</v>
+        <v>408.8462053879833</v>
       </c>
       <c r="Q39" t="n">
         <v>61.41672077412503</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>65.58080264720481</v>
+        <v>65.58080264720491</v>
       </c>
       <c r="K40" t="n">
-        <v>196.8308018395682</v>
+        <v>196.8308018395683</v>
       </c>
       <c r="L40" t="n">
-        <v>289.6671230757221</v>
+        <v>289.6671230757222</v>
       </c>
       <c r="M40" t="n">
-        <v>312.3510640020114</v>
+        <v>312.3510640020115</v>
       </c>
       <c r="N40" t="n">
-        <v>311.9691720378994</v>
+        <v>311.9691720378995</v>
       </c>
       <c r="O40" t="n">
-        <v>276.9701988282527</v>
+        <v>276.9701988282528</v>
       </c>
       <c r="P40" t="n">
-        <v>222.6798729008471</v>
+        <v>222.6798729008472</v>
       </c>
       <c r="Q40" t="n">
-        <v>90.0215705001617</v>
+        <v>90.0215705001618</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,13 +37780,13 @@
         <v>238.3269990876613</v>
       </c>
       <c r="K41" t="n">
-        <v>479.1548404662438</v>
+        <v>479.1548404662447</v>
       </c>
       <c r="L41" t="n">
         <v>647.2386236527367</v>
       </c>
       <c r="M41" t="n">
-        <v>736.9519667017605</v>
+        <v>736.9519667017595</v>
       </c>
       <c r="N41" t="n">
         <v>734.0968244817332</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>148.3162515057383</v>
+        <v>80.77757195255023</v>
       </c>
       <c r="K42" t="n">
-        <v>381.3959388183878</v>
+        <v>116.9307018058092</v>
       </c>
       <c r="L42" t="n">
         <v>574.8585496375059</v>
@@ -37868,7 +37868,7 @@
         <v>257.6320136340105</v>
       </c>
       <c r="N42" t="n">
-        <v>279.0049532105036</v>
+        <v>758.3473275540571</v>
       </c>
       <c r="O42" t="n">
         <v>232.7907865711674</v>
@@ -37877,7 +37877,7 @@
         <v>485.769548320888</v>
       </c>
       <c r="Q42" t="n">
-        <v>208.755178551912</v>
+        <v>61.41672077412503</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>32.86942988224953</v>
+        <v>32.86942988224961</v>
       </c>
       <c r="K43" t="n">
         <v>164.119429074613</v>
       </c>
       <c r="L43" t="n">
-        <v>256.9557503107668</v>
+        <v>256.9557503107669</v>
       </c>
       <c r="M43" t="n">
-        <v>279.6396912370561</v>
+        <v>279.6396912370562</v>
       </c>
       <c r="N43" t="n">
         <v>279.2577992729442</v>
       </c>
       <c r="O43" t="n">
-        <v>244.2588260632974</v>
+        <v>244.2588260632975</v>
       </c>
       <c r="P43" t="n">
         <v>189.9685001358919</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.31019773520643</v>
+        <v>57.3101977352065</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38099,22 +38099,22 @@
         <v>116.9307018058092</v>
       </c>
       <c r="L45" t="n">
-        <v>360.0775749742551</v>
+        <v>235.4803423052302</v>
       </c>
       <c r="M45" t="n">
         <v>723.3370773840104</v>
       </c>
       <c r="N45" t="n">
-        <v>758.3473275540571</v>
+        <v>279.0049532105036</v>
       </c>
       <c r="O45" t="n">
-        <v>232.7907865711674</v>
+        <v>626.653105847897</v>
       </c>
       <c r="P45" t="n">
         <v>167.3067796809508</v>
       </c>
       <c r="Q45" t="n">
-        <v>61.41672077412503</v>
+        <v>271.4940085099742</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>32.86942988224953</v>
+        <v>32.86942988224959</v>
       </c>
       <c r="K46" t="n">
         <v>164.119429074613</v>
       </c>
       <c r="L46" t="n">
-        <v>256.9557503107668</v>
+        <v>256.9557503107669</v>
       </c>
       <c r="M46" t="n">
-        <v>279.6396912370561</v>
+        <v>279.6396912370562</v>
       </c>
       <c r="N46" t="n">
         <v>279.2577992729442</v>
       </c>
       <c r="O46" t="n">
-        <v>244.2588260632974</v>
+        <v>244.2588260632975</v>
       </c>
       <c r="P46" t="n">
         <v>189.9685001358919</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.31019773520643</v>
+        <v>57.31019773520649</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
